--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImportOrder\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1ABEBE-A30C-4FD8-B897-DE0DDC6343A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="14970" windowHeight="5520" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheney" sheetId="1" r:id="rId1"/>
@@ -5040,7 +5041,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5485,9 +5486,9 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5578,6 +5579,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5613,6 +5631,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5788,7 +5823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I43"/>
   <sheetViews>
@@ -5796,20 +5831,20 @@
       <selection activeCell="C14" sqref="A1:I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="6" customWidth="1"/>
     <col min="6" max="6" width="16" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5838,7 +5873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>66</v>
       </c>
@@ -5861,7 +5896,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>18</v>
       </c>
@@ -5884,7 +5919,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
         <v>66</v>
       </c>
@@ -5907,7 +5942,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>18</v>
       </c>
@@ -5930,7 +5965,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>18</v>
       </c>
@@ -5953,7 +5988,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>18</v>
       </c>
@@ -5976,7 +6011,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
         <v>18</v>
       </c>
@@ -5999,7 +6034,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -6022,7 +6057,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -6045,7 +6080,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
         <v>18</v>
       </c>
@@ -6068,7 +6103,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
         <v>18</v>
       </c>
@@ -6091,7 +6126,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
         <v>18</v>
       </c>
@@ -6114,7 +6149,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>66</v>
       </c>
@@ -6137,7 +6172,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -6160,7 +6195,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
         <v>18</v>
       </c>
@@ -6183,7 +6218,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
         <v>18</v>
       </c>
@@ -6206,7 +6241,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
         <v>66</v>
       </c>
@@ -6229,7 +6264,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -6252,7 +6287,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
         <v>66</v>
       </c>
@@ -6275,7 +6310,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
         <v>18</v>
       </c>
@@ -6298,7 +6333,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
         <v>18</v>
       </c>
@@ -6321,7 +6356,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
         <v>66</v>
       </c>
@@ -6344,7 +6379,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
         <v>66</v>
       </c>
@@ -6367,7 +6402,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="37" t="s">
         <v>18</v>
       </c>
@@ -6390,7 +6425,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="37" t="s">
         <v>66</v>
       </c>
@@ -6413,7 +6448,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="37" t="s">
         <v>18</v>
       </c>
@@ -6436,7 +6471,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
         <v>66</v>
       </c>
@@ -6459,7 +6494,7 @@
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
     </row>
-    <row r="29" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37" t="s">
         <v>18</v>
       </c>
@@ -6482,7 +6517,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="37" t="s">
         <v>18</v>
       </c>
@@ -6505,7 +6540,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="37" t="s">
         <v>18</v>
       </c>
@@ -6528,7 +6563,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" s="37" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="37" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37" t="s">
         <v>66</v>
       </c>
@@ -6551,7 +6586,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" s="37" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="37" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="37" t="s">
         <v>66</v>
       </c>
@@ -6574,7 +6609,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="37" t="s">
         <v>18</v>
       </c>
@@ -6597,7 +6632,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="37" t="s">
         <v>66</v>
       </c>
@@ -6620,7 +6655,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="37" t="s">
         <v>66</v>
       </c>
@@ -6643,7 +6678,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" s="37" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="37" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="37" t="s">
         <v>18</v>
       </c>
@@ -6666,7 +6701,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" s="37" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="37" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="37" t="s">
         <v>18</v>
       </c>
@@ -6689,7 +6724,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" s="37" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="37" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="37" t="s">
         <v>18</v>
       </c>
@@ -6712,7 +6747,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="44" t="s">
         <v>18</v>
       </c>
@@ -6735,7 +6770,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
         <v>18</v>
       </c>
@@ -6758,7 +6793,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44" t="s">
         <v>18</v>
       </c>
@@ -6781,7 +6816,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="44" t="s">
         <v>18</v>
       </c>
@@ -6805,9 +6840,9 @@
       <c r="I43" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I40"/>
+  <autoFilter ref="A1:I40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6817,26 +6852,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6868,7 +6903,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
@@ -6894,7 +6929,7 @@
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>18</v>
       </c>
@@ -6920,7 +6955,7 @@
       <c r="I3" s="49"/>
       <c r="J3" s="49"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>18</v>
       </c>
@@ -6948,7 +6983,7 @@
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
@@ -6976,7 +7011,7 @@
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
@@ -7002,7 +7037,7 @@
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>18</v>
       </c>
@@ -7028,7 +7063,7 @@
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>18</v>
       </c>
@@ -7056,7 +7091,7 @@
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
@@ -7082,7 +7117,7 @@
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>18</v>
       </c>
@@ -7108,7 +7143,7 @@
       <c r="I10" s="49"/>
       <c r="J10" s="49"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>18</v>
       </c>
@@ -7134,7 +7169,7 @@
       <c r="I11" s="49"/>
       <c r="J11" s="49"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
@@ -7160,7 +7195,7 @@
       <c r="I12" s="49"/>
       <c r="J12" s="49"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>18</v>
       </c>
@@ -7186,7 +7221,7 @@
       <c r="I13" s="49"/>
       <c r="J13" s="49"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>18</v>
       </c>
@@ -7212,7 +7247,7 @@
       <c r="I14" s="49"/>
       <c r="J14" s="49"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>66</v>
       </c>
@@ -7238,7 +7273,7 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>18</v>
       </c>
@@ -7264,7 +7299,7 @@
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>18</v>
       </c>
@@ -7290,7 +7325,7 @@
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>18</v>
       </c>
@@ -7316,7 +7351,7 @@
       <c r="I18" s="49"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
@@ -7344,7 +7379,7 @@
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>18</v>
       </c>
@@ -7370,7 +7405,7 @@
       <c r="I20" s="49"/>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>18</v>
       </c>
@@ -7396,7 +7431,7 @@
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>18</v>
       </c>
@@ -7422,7 +7457,7 @@
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>18</v>
       </c>
@@ -7448,7 +7483,7 @@
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>18</v>
       </c>
@@ -7474,7 +7509,7 @@
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>18</v>
       </c>
@@ -7500,7 +7535,7 @@
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>18</v>
       </c>
@@ -7526,7 +7561,7 @@
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>18</v>
       </c>
@@ -7552,7 +7587,7 @@
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
         <v>18</v>
       </c>
@@ -7580,7 +7615,7 @@
       <c r="I28" s="49"/>
       <c r="J28" s="49"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>18</v>
       </c>
@@ -7608,7 +7643,7 @@
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>18</v>
       </c>
@@ -7636,7 +7671,7 @@
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>18</v>
       </c>
@@ -7662,7 +7697,7 @@
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
         <v>18</v>
       </c>
@@ -7688,7 +7723,7 @@
       <c r="I32" s="49"/>
       <c r="J32" s="49"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
         <v>18</v>
       </c>
@@ -7714,7 +7749,7 @@
       <c r="I33" s="49"/>
       <c r="J33" s="49"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
         <v>66</v>
       </c>
@@ -7742,7 +7777,7 @@
       <c r="I34" s="49"/>
       <c r="J34" s="49"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
         <v>18</v>
       </c>
@@ -7768,7 +7803,7 @@
       <c r="I35" s="49"/>
       <c r="J35" s="49"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
         <v>18</v>
       </c>
@@ -7794,7 +7829,7 @@
       <c r="I36" s="49"/>
       <c r="J36" s="49"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
         <v>18</v>
       </c>
@@ -7820,7 +7855,7 @@
       <c r="I37" s="49"/>
       <c r="J37" s="49"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
         <v>18</v>
       </c>
@@ -7846,7 +7881,7 @@
       <c r="I38" s="49"/>
       <c r="J38" s="49"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>18</v>
       </c>
@@ -7872,7 +7907,7 @@
       <c r="I39" s="49"/>
       <c r="J39" s="49"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>18</v>
       </c>
@@ -7900,7 +7935,7 @@
       <c r="I40" s="49"/>
       <c r="J40" s="49"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
         <v>18</v>
       </c>
@@ -7928,7 +7963,7 @@
       <c r="I41" s="49"/>
       <c r="J41" s="49"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>18</v>
       </c>
@@ -7956,7 +7991,7 @@
       <c r="I42" s="49"/>
       <c r="J42" s="49"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
         <v>18</v>
       </c>
@@ -7982,7 +8017,7 @@
       <c r="I43" s="49"/>
       <c r="J43" s="49"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
         <v>18</v>
       </c>
@@ -8008,7 +8043,7 @@
       <c r="I44" s="49"/>
       <c r="J44" s="49"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="39" t="s">
         <v>18</v>
       </c>
@@ -8036,7 +8071,7 @@
       <c r="I45" s="49"/>
       <c r="J45" s="49"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
         <v>18</v>
       </c>
@@ -8064,7 +8099,7 @@
       <c r="I46" s="49"/>
       <c r="J46" s="49"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
         <v>18</v>
       </c>
@@ -8090,7 +8125,7 @@
       <c r="I47" s="49"/>
       <c r="J47" s="49"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
         <v>18</v>
       </c>
@@ -8116,7 +8151,7 @@
       <c r="I48" s="49"/>
       <c r="J48" s="49"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
         <v>18</v>
       </c>
@@ -8142,7 +8177,7 @@
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
         <v>18</v>
       </c>
@@ -8170,7 +8205,7 @@
       <c r="I50" s="49"/>
       <c r="J50" s="49"/>
     </row>
-    <row r="51" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
         <v>18</v>
       </c>
@@ -8198,7 +8233,7 @@
       <c r="I51" s="49"/>
       <c r="J51" s="49"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
         <v>18</v>
       </c>
@@ -8226,7 +8261,7 @@
       <c r="I52" s="49"/>
       <c r="J52" s="49"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
         <v>18</v>
       </c>
@@ -8252,7 +8287,7 @@
       <c r="I53" s="49"/>
       <c r="J53" s="49"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
         <v>18</v>
       </c>
@@ -8280,7 +8315,7 @@
       <c r="I54" s="49"/>
       <c r="J54" s="49"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
         <v>18</v>
       </c>
@@ -8306,7 +8341,7 @@
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
         <v>18</v>
       </c>
@@ -8334,7 +8369,7 @@
       <c r="I56" s="49"/>
       <c r="J56" s="49"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
         <v>18</v>
       </c>
@@ -8360,7 +8395,7 @@
       <c r="I57" s="49"/>
       <c r="J57" s="49"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
         <v>18</v>
       </c>
@@ -8386,7 +8421,7 @@
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="39" t="s">
         <v>18</v>
       </c>
@@ -8412,7 +8447,7 @@
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">
         <v>18</v>
       </c>
@@ -8440,7 +8475,7 @@
       <c r="I60" s="49"/>
       <c r="J60" s="49"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
         <v>18</v>
       </c>
@@ -8466,7 +8501,7 @@
       <c r="I61" s="49"/>
       <c r="J61" s="49"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="39" t="s">
         <v>18</v>
       </c>
@@ -8492,7 +8527,7 @@
       <c r="I62" s="49"/>
       <c r="J62" s="49"/>
     </row>
-    <row r="63" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
         <v>18</v>
       </c>
@@ -8518,7 +8553,7 @@
       <c r="I63" s="49"/>
       <c r="J63" s="49"/>
     </row>
-    <row r="64" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
         <v>18</v>
       </c>
@@ -8546,7 +8581,7 @@
       <c r="I64" s="49"/>
       <c r="J64" s="49"/>
     </row>
-    <row r="65" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
         <v>18</v>
       </c>
@@ -8572,7 +8607,7 @@
       <c r="I65" s="49"/>
       <c r="J65" s="49"/>
     </row>
-    <row r="66" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="39" t="s">
         <v>18</v>
       </c>
@@ -8598,7 +8633,7 @@
       <c r="I66" s="49"/>
       <c r="J66" s="49"/>
     </row>
-    <row r="67" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="39" t="s">
         <v>18</v>
       </c>
@@ -8624,7 +8659,7 @@
       <c r="I67" s="49"/>
       <c r="J67" s="49"/>
     </row>
-    <row r="68" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39" t="s">
         <v>18</v>
       </c>
@@ -8650,7 +8685,7 @@
       <c r="I68" s="49"/>
       <c r="J68" s="49"/>
     </row>
-    <row r="69" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="39" t="s">
         <v>18</v>
       </c>
@@ -8676,7 +8711,7 @@
       <c r="I69" s="49"/>
       <c r="J69" s="49"/>
     </row>
-    <row r="70" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="39" t="s">
         <v>18</v>
       </c>
@@ -8702,7 +8737,7 @@
       <c r="I70" s="49"/>
       <c r="J70" s="49"/>
     </row>
-    <row r="71" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
         <v>18</v>
       </c>
@@ -8728,7 +8763,7 @@
       <c r="I71" s="49"/>
       <c r="J71" s="49"/>
     </row>
-    <row r="72" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="39" t="s">
         <v>18</v>
       </c>
@@ -8756,7 +8791,7 @@
       <c r="I72" s="49"/>
       <c r="J72" s="49"/>
     </row>
-    <row r="73" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="39" t="s">
         <v>18</v>
       </c>
@@ -8784,7 +8819,7 @@
       <c r="I73" s="49"/>
       <c r="J73" s="49"/>
     </row>
-    <row r="74" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="39" t="s">
         <v>66</v>
       </c>
@@ -8810,7 +8845,7 @@
       <c r="I74" s="49"/>
       <c r="J74" s="49"/>
     </row>
-    <row r="75" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="39" t="s">
         <v>66</v>
       </c>
@@ -8836,7 +8871,7 @@
       <c r="I75" s="49"/>
       <c r="J75" s="49"/>
     </row>
-    <row r="76" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="39" t="s">
         <v>66</v>
       </c>
@@ -8862,7 +8897,7 @@
       <c r="I76" s="49"/>
       <c r="J76" s="49"/>
     </row>
-    <row r="77" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
         <v>18</v>
       </c>
@@ -8892,12 +8927,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A77" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E29" r:id="rId1"/>
+    <hyperlink ref="E29" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -8905,29 +8940,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="44"/>
-    <col min="2" max="2" width="25.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.42578125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.140625" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.28515625" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.140625" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.109375" style="44"/>
+    <col min="2" max="2" width="25.5546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.109375" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.44140625" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.109375" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.33203125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.109375" style="44" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="22" style="44" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" style="44" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.42578125" style="44" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="44"/>
+    <col min="9" max="9" width="14.44140625" style="44" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.44140625" style="44" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.109375" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -8959,7 +8994,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
@@ -8985,9 +9020,9 @@
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>173</v>
@@ -9011,7 +9046,7 @@
       <c r="I3" s="49"/>
       <c r="J3" s="49"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>18</v>
       </c>
@@ -9039,7 +9074,7 @@
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
@@ -9067,7 +9102,7 @@
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
@@ -9095,7 +9130,7 @@
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>18</v>
       </c>
@@ -9123,7 +9158,7 @@
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>18</v>
       </c>
@@ -9151,7 +9186,7 @@
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
@@ -9179,7 +9214,7 @@
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>18</v>
       </c>
@@ -9207,7 +9242,7 @@
       <c r="I10" s="49"/>
       <c r="J10" s="49"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>18</v>
       </c>
@@ -9235,7 +9270,7 @@
       <c r="I11" s="49"/>
       <c r="J11" s="49"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
@@ -9263,7 +9298,7 @@
       <c r="I12" s="49"/>
       <c r="J12" s="49"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>18</v>
       </c>
@@ -9291,7 +9326,7 @@
       <c r="I13" s="49"/>
       <c r="J13" s="49"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>18</v>
       </c>
@@ -9319,9 +9354,9 @@
       <c r="I14" s="49"/>
       <c r="J14" s="49"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>1109</v>
@@ -9347,9 +9382,9 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>1112</v>
@@ -9373,7 +9408,7 @@
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>18</v>
       </c>
@@ -9399,9 +9434,9 @@
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>152</v>
@@ -9427,9 +9462,9 @@
       <c r="I18" s="49"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>1117</v>
@@ -9453,7 +9488,7 @@
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>18</v>
       </c>
@@ -9479,7 +9514,7 @@
       <c r="I20" s="49"/>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>18</v>
       </c>
@@ -9505,7 +9540,7 @@
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>18</v>
       </c>
@@ -9531,9 +9566,9 @@
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>1128</v>
@@ -9557,7 +9592,7 @@
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>18</v>
       </c>
@@ -9583,7 +9618,7 @@
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>18</v>
       </c>
@@ -9609,7 +9644,7 @@
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>18</v>
       </c>
@@ -9635,7 +9670,7 @@
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>18</v>
       </c>
@@ -9661,7 +9696,7 @@
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
         <v>18</v>
       </c>
@@ -9687,7 +9722,7 @@
       <c r="I28" s="49"/>
       <c r="J28" s="49"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>18</v>
       </c>
@@ -9713,7 +9748,7 @@
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>18</v>
       </c>
@@ -9739,7 +9774,7 @@
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>18</v>
       </c>
@@ -9765,7 +9800,7 @@
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
         <v>18</v>
       </c>
@@ -9791,9 +9826,9 @@
       <c r="I32" s="49"/>
       <c r="J32" s="49"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>1177</v>
@@ -9817,7 +9852,7 @@
       <c r="I33" s="49"/>
       <c r="J33" s="49"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
         <v>18</v>
       </c>
@@ -9843,7 +9878,7 @@
       <c r="I34" s="49"/>
       <c r="J34" s="49"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
         <v>18</v>
       </c>
@@ -9869,9 +9904,9 @@
       <c r="I35" s="49"/>
       <c r="J35" s="49"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>1192</v>
@@ -9895,7 +9930,7 @@
       <c r="I36" s="49"/>
       <c r="J36" s="49"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
         <v>18</v>
       </c>
@@ -9921,9 +9956,9 @@
       <c r="I37" s="49"/>
       <c r="J37" s="49"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>1204</v>
@@ -9947,7 +9982,7 @@
       <c r="I38" s="49"/>
       <c r="J38" s="49"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>18</v>
       </c>
@@ -9973,7 +10008,7 @@
       <c r="I39" s="49"/>
       <c r="J39" s="49"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>18</v>
       </c>
@@ -10001,7 +10036,7 @@
       <c r="I40" s="49"/>
       <c r="J40" s="49"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
         <v>18</v>
       </c>
@@ -10029,7 +10064,7 @@
       <c r="I41" s="49"/>
       <c r="J41" s="49"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>18</v>
       </c>
@@ -10057,7 +10092,7 @@
       <c r="I42" s="49"/>
       <c r="J42" s="49"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
         <v>18</v>
       </c>
@@ -10083,7 +10118,7 @@
       <c r="I43" s="49"/>
       <c r="J43" s="49"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
         <v>18</v>
       </c>
@@ -10109,7 +10144,7 @@
       <c r="I44" s="49"/>
       <c r="J44" s="49"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="39" t="s">
         <v>18</v>
       </c>
@@ -10137,9 +10172,9 @@
       <c r="I45" s="49"/>
       <c r="J45" s="49"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>561</v>
@@ -10163,7 +10198,7 @@
       <c r="I46" s="49"/>
       <c r="J46" s="49"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
         <v>18</v>
       </c>
@@ -10191,7 +10226,7 @@
       <c r="I47" s="49"/>
       <c r="J47" s="49"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
         <v>18</v>
       </c>
@@ -10219,7 +10254,7 @@
       <c r="I48" s="49"/>
       <c r="J48" s="49"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
         <v>18</v>
       </c>
@@ -10247,9 +10282,9 @@
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>1231</v>
@@ -10273,7 +10308,7 @@
       <c r="I50" s="49"/>
       <c r="J50" s="49"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
         <v>18</v>
       </c>
@@ -10301,7 +10336,7 @@
       <c r="I51" s="49"/>
       <c r="J51" s="49"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
         <v>18</v>
       </c>
@@ -10327,7 +10362,7 @@
       <c r="I52" s="49"/>
       <c r="J52" s="49"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
         <v>18</v>
       </c>
@@ -10355,9 +10390,9 @@
       <c r="I53" s="49"/>
       <c r="J53" s="49"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>1246</v>
@@ -10381,7 +10416,7 @@
       <c r="I54" s="49"/>
       <c r="J54" s="49"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
         <v>18</v>
       </c>
@@ -10407,7 +10442,7 @@
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
         <v>18</v>
       </c>
@@ -10433,7 +10468,7 @@
       <c r="I56" s="49"/>
       <c r="J56" s="49"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
         <v>18</v>
       </c>
@@ -10459,9 +10494,9 @@
       <c r="I57" s="49"/>
       <c r="J57" s="49"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>1272</v>
@@ -10487,7 +10522,7 @@
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="39" t="s">
         <v>18</v>
       </c>
@@ -10515,7 +10550,7 @@
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">
         <v>18</v>
       </c>
@@ -10541,7 +10576,7 @@
       <c r="I60" s="49"/>
       <c r="J60" s="49"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
         <v>18</v>
       </c>
@@ -10567,7 +10602,7 @@
       <c r="I61" s="49"/>
       <c r="J61" s="49"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="39" t="s">
         <v>18</v>
       </c>
@@ -10593,7 +10628,7 @@
       <c r="I62" s="49"/>
       <c r="J62" s="49"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
         <v>18</v>
       </c>
@@ -10619,7 +10654,7 @@
       <c r="I63" s="49"/>
       <c r="J63" s="49"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
         <v>18</v>
       </c>
@@ -10645,9 +10680,9 @@
       <c r="I64" s="49"/>
       <c r="J64" s="49"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>452</v>
@@ -10671,9 +10706,9 @@
       <c r="I65" s="49"/>
       <c r="J65" s="49"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>1453</v>
@@ -10699,7 +10734,7 @@
       <c r="I66" s="49"/>
       <c r="J66" s="49"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="39" t="s">
         <v>18</v>
       </c>
@@ -10725,7 +10760,7 @@
       <c r="I67" s="49"/>
       <c r="J67" s="49"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="39" t="s">
         <v>18</v>
       </c>
@@ -10751,7 +10786,7 @@
       <c r="I68" s="49"/>
       <c r="J68" s="49"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="39" t="s">
         <v>18</v>
       </c>
@@ -10777,9 +10812,9 @@
       <c r="I69" s="49"/>
       <c r="J69" s="49"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>1484</v>
@@ -10803,9 +10838,9 @@
       <c r="I70" s="49"/>
       <c r="J70" s="49"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>1488</v>
@@ -10829,9 +10864,9 @@
       <c r="I71" s="49"/>
       <c r="J71" s="49"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>1494</v>
@@ -10855,7 +10890,7 @@
       <c r="I72" s="49"/>
       <c r="J72" s="49"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="39" t="s">
         <v>18</v>
       </c>
@@ -10881,9 +10916,9 @@
       <c r="I73" s="49"/>
       <c r="J73" s="49"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>1506</v>
@@ -10909,7 +10944,7 @@
       <c r="I74" s="49"/>
       <c r="J74" s="49"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="39" t="s">
         <v>18</v>
       </c>
@@ -10935,7 +10970,7 @@
       <c r="I75" s="49"/>
       <c r="J75" s="49"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="39" t="s">
         <v>18</v>
       </c>
@@ -10963,7 +10998,7 @@
       <c r="I76" s="49"/>
       <c r="J76" s="49"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
         <v>18</v>
       </c>
@@ -10989,9 +11024,9 @@
       <c r="I77" s="49"/>
       <c r="J77" s="49"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>1520</v>
@@ -11015,7 +11050,7 @@
       <c r="I78" s="49"/>
       <c r="J78" s="49"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
         <v>18</v>
       </c>
@@ -11043,7 +11078,7 @@
       <c r="I79" s="49"/>
       <c r="J79" s="49"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="39" t="s">
         <v>18</v>
       </c>
@@ -11069,7 +11104,7 @@
       <c r="I80" s="49"/>
       <c r="J80" s="49"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="39" t="s">
         <v>18</v>
       </c>
@@ -11097,7 +11132,7 @@
       <c r="I81" s="49"/>
       <c r="J81" s="49"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="39" t="s">
         <v>18</v>
       </c>
@@ -11123,9 +11158,9 @@
       <c r="I82" s="49"/>
       <c r="J82" s="49"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>1545</v>
@@ -11149,9 +11184,9 @@
       <c r="I83" s="49"/>
       <c r="J83" s="49"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>1549</v>
@@ -11177,7 +11212,7 @@
       <c r="I84" s="49"/>
       <c r="J84" s="49"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="39" t="s">
         <v>18</v>
       </c>
@@ -11203,7 +11238,7 @@
       <c r="I85" s="49"/>
       <c r="J85" s="49"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="39" t="s">
         <v>18</v>
       </c>
@@ -11229,7 +11264,7 @@
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="39" t="s">
         <v>18</v>
       </c>
@@ -11255,7 +11290,7 @@
       <c r="I87" s="49"/>
       <c r="J87" s="49"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="39" t="s">
         <v>18</v>
       </c>
@@ -11281,7 +11316,7 @@
       <c r="I88" s="49"/>
       <c r="J88" s="49"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="39" t="s">
         <v>18</v>
       </c>
@@ -11307,7 +11342,7 @@
       <c r="I89" s="49"/>
       <c r="J89" s="49"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="39" t="s">
         <v>18</v>
       </c>
@@ -11333,7 +11368,7 @@
       <c r="I90" s="49"/>
       <c r="J90" s="49"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="39" t="s">
         <v>18</v>
       </c>
@@ -11359,7 +11394,7 @@
       <c r="I91" s="49"/>
       <c r="J91" s="49"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="39" t="s">
         <v>18</v>
       </c>
@@ -11387,7 +11422,7 @@
       <c r="I92" s="49"/>
       <c r="J92" s="49"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
         <v>18</v>
       </c>
@@ -11413,9 +11448,9 @@
       <c r="I93" s="49"/>
       <c r="J93" s="49"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>1599</v>
@@ -11439,7 +11474,7 @@
       <c r="I94" s="49"/>
       <c r="J94" s="49"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="39" t="s">
         <v>18</v>
       </c>
@@ -11465,7 +11500,7 @@
       <c r="I95" s="49"/>
       <c r="J95" s="49"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="39" t="s">
         <v>18</v>
       </c>
@@ -11493,7 +11528,7 @@
       <c r="I96" s="49"/>
       <c r="J96" s="49"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="39" t="s">
         <v>18</v>
       </c>
@@ -11519,7 +11554,7 @@
       <c r="I97" s="49"/>
       <c r="J97" s="49"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="39" t="s">
         <v>18</v>
       </c>
@@ -11545,7 +11580,7 @@
       <c r="I98" s="49"/>
       <c r="J98" s="49"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="39" t="s">
         <v>18</v>
       </c>
@@ -11571,7 +11606,7 @@
       <c r="I99" s="49"/>
       <c r="J99" s="49"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="39" t="s">
         <v>18</v>
       </c>
@@ -11597,7 +11632,7 @@
       <c r="I100" s="49"/>
       <c r="J100" s="49"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="39" t="s">
         <v>18</v>
       </c>
@@ -11623,7 +11658,7 @@
       <c r="I101" s="49"/>
       <c r="J101" s="49"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="39" t="s">
         <v>18</v>
       </c>
@@ -11649,7 +11684,7 @@
       <c r="I102" s="49"/>
       <c r="J102" s="49"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="39" t="s">
         <v>18</v>
       </c>
@@ -11677,7 +11712,7 @@
       <c r="I103" s="49"/>
       <c r="J103" s="49"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="39" t="s">
         <v>18</v>
       </c>
@@ -11705,7 +11740,7 @@
       <c r="I104" s="49"/>
       <c r="J104" s="49"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="39" t="s">
         <v>18</v>
       </c>
@@ -11733,7 +11768,7 @@
       <c r="I105" s="49"/>
       <c r="J105" s="49"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="39" t="s">
         <v>18</v>
       </c>
@@ -11761,7 +11796,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A106" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11771,25 +11806,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -11818,7 +11853,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>18</v>
       </c>
@@ -11841,7 +11876,7 @@
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>18</v>
       </c>
@@ -11864,7 +11899,7 @@
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
         <v>18</v>
       </c>
@@ -11887,7 +11922,7 @@
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>18</v>
       </c>
@@ -11910,7 +11945,7 @@
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
         <v>18</v>
       </c>
@@ -11933,7 +11968,7 @@
       <c r="H6" s="55"/>
       <c r="I6" s="55"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>18</v>
       </c>
@@ -11956,7 +11991,7 @@
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
         <v>18</v>
       </c>
@@ -11979,7 +12014,7 @@
       <c r="H8" s="55"/>
       <c r="I8" s="55"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>18</v>
       </c>
@@ -12002,7 +12037,7 @@
       <c r="H9" s="55"/>
       <c r="I9" s="55"/>
     </row>
-    <row r="10" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>18</v>
       </c>
@@ -12025,7 +12060,7 @@
       <c r="H10" s="55"/>
       <c r="I10" s="55"/>
     </row>
-    <row r="11" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>18</v>
       </c>
@@ -12048,7 +12083,7 @@
       <c r="H11" s="55"/>
       <c r="I11" s="55"/>
     </row>
-    <row r="12" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>66</v>
       </c>
@@ -12071,7 +12106,7 @@
       <c r="H12" s="55"/>
       <c r="I12" s="55"/>
     </row>
-    <row r="13" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
         <v>18</v>
       </c>
@@ -12094,7 +12129,7 @@
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
     </row>
-    <row r="14" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>18</v>
       </c>
@@ -12117,7 +12152,7 @@
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
     </row>
-    <row r="15" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="53" t="s">
         <v>18</v>
       </c>
@@ -12140,7 +12175,7 @@
       <c r="H15" s="55"/>
       <c r="I15" s="55"/>
     </row>
-    <row r="16" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
         <v>18</v>
       </c>
@@ -12163,7 +12198,7 @@
       <c r="H16" s="55"/>
       <c r="I16" s="55"/>
     </row>
-    <row r="17" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="53" t="s">
         <v>18</v>
       </c>
@@ -12186,7 +12221,7 @@
       <c r="H17" s="55"/>
       <c r="I17" s="55"/>
     </row>
-    <row r="18" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>66</v>
       </c>
@@ -12209,7 +12244,7 @@
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
     </row>
-    <row r="19" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="53" t="s">
         <v>18</v>
       </c>
@@ -12232,7 +12267,7 @@
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
     </row>
-    <row r="20" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="53" t="s">
         <v>18</v>
       </c>
@@ -12255,7 +12290,7 @@
       <c r="H20" s="55"/>
       <c r="I20" s="55"/>
     </row>
-    <row r="21" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="53" t="s">
         <v>66</v>
       </c>
@@ -12278,7 +12313,7 @@
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="53" t="s">
         <v>18</v>
       </c>
@@ -12301,7 +12336,7 @@
       <c r="H22" s="55"/>
       <c r="I22" s="55"/>
     </row>
-    <row r="23" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
         <v>66</v>
       </c>
@@ -12324,7 +12359,7 @@
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
     </row>
-    <row r="24" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="53" t="s">
         <v>18</v>
       </c>
@@ -12347,7 +12382,7 @@
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
     </row>
-    <row r="25" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="53" t="s">
         <v>18</v>
       </c>
@@ -12370,7 +12405,7 @@
       <c r="H25" s="55"/>
       <c r="I25" s="55"/>
     </row>
-    <row r="26" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="53" t="s">
         <v>18</v>
       </c>
@@ -12395,7 +12430,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A26" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12405,7 +12440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -12413,19 +12448,19 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -12454,7 +12489,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>66</v>
       </c>
@@ -12477,7 +12512,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>66</v>
       </c>
@@ -12500,7 +12535,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
         <v>66</v>
       </c>
@@ -12525,7 +12560,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>18</v>
       </c>
@@ -12548,7 +12583,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>18</v>
       </c>
@@ -12571,7 +12606,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>18</v>
       </c>
@@ -12596,7 +12631,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
         <v>18</v>
       </c>
@@ -12621,7 +12656,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -12646,7 +12681,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -12671,7 +12706,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
         <v>18</v>
       </c>
@@ -12696,7 +12731,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
         <v>66</v>
       </c>
@@ -12721,7 +12756,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
         <v>66</v>
       </c>
@@ -12746,7 +12781,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>18</v>
       </c>
@@ -12769,7 +12804,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -12794,7 +12829,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
         <v>18</v>
       </c>
@@ -12819,7 +12854,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
         <v>66</v>
       </c>
@@ -12844,7 +12879,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
         <v>18</v>
       </c>
@@ -12869,7 +12904,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
         <v>66</v>
       </c>
@@ -12892,7 +12927,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
         <v>66</v>
       </c>
@@ -12915,7 +12950,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
         <v>18</v>
       </c>
@@ -12940,7 +12975,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
         <v>18</v>
       </c>
@@ -12965,7 +13000,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
         <v>18</v>
       </c>
@@ -12988,7 +13023,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
         <v>66</v>
       </c>
@@ -13011,7 +13046,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="37" t="s">
         <v>66</v>
       </c>
@@ -13034,7 +13069,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="37" t="s">
         <v>18</v>
       </c>
@@ -13059,7 +13094,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="37" t="s">
         <v>18</v>
       </c>
@@ -13082,7 +13117,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
         <v>66</v>
       </c>
@@ -13105,7 +13140,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37" t="s">
         <v>66</v>
       </c>
@@ -13130,7 +13165,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="37" t="s">
         <v>18</v>
       </c>
@@ -13155,7 +13190,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="37" t="s">
         <v>66</v>
       </c>
@@ -13180,7 +13215,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37" t="s">
         <v>66</v>
       </c>
@@ -13203,7 +13238,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="37" t="s">
         <v>66</v>
       </c>
@@ -13226,7 +13261,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="37" t="s">
         <v>66</v>
       </c>
@@ -13249,7 +13284,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="37" t="s">
         <v>18</v>
       </c>
@@ -13274,7 +13309,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="37" t="s">
         <v>18</v>
       </c>
@@ -13299,7 +13334,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="37" t="s">
         <v>18</v>
       </c>
@@ -13324,7 +13359,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="37" t="s">
         <v>18</v>
       </c>
@@ -13349,7 +13384,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="37" t="s">
         <v>66</v>
       </c>
@@ -13372,7 +13407,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="37" t="s">
         <v>18</v>
       </c>
@@ -13395,7 +13430,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
         <v>66</v>
       </c>
@@ -13418,7 +13453,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44" t="s">
         <v>66</v>
       </c>
@@ -13441,7 +13476,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="44" t="s">
         <v>66</v>
       </c>
@@ -13464,7 +13499,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="44" t="s">
         <v>18</v>
       </c>
@@ -13489,7 +13524,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44" t="s">
         <v>66</v>
       </c>
@@ -13512,7 +13547,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="44" t="s">
         <v>18</v>
       </c>
@@ -13537,7 +13572,7 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="44" t="s">
         <v>18</v>
       </c>
@@ -13560,7 +13595,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="44" t="s">
         <v>18</v>
       </c>
@@ -13583,7 +13618,7 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="44" t="s">
         <v>18</v>
       </c>
@@ -13606,7 +13641,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
         <v>18</v>
       </c>
@@ -13629,7 +13664,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="44" t="s">
         <v>66</v>
       </c>
@@ -13652,7 +13687,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="44" t="s">
         <v>66</v>
       </c>
@@ -13677,7 +13712,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="44" t="s">
         <v>18</v>
       </c>
@@ -13702,7 +13737,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="44" t="s">
         <v>18</v>
       </c>
@@ -13727,7 +13762,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="44" t="s">
         <v>18</v>
       </c>
@@ -13752,7 +13787,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="44" t="s">
         <v>18</v>
       </c>
@@ -13775,7 +13810,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
     </row>
-    <row r="57" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="44" t="s">
         <v>18</v>
       </c>
@@ -13798,7 +13833,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="44" t="s">
         <v>18</v>
       </c>
@@ -13821,7 +13856,7 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="44" t="s">
         <v>18</v>
       </c>
@@ -13844,7 +13879,7 @@
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="44" t="s">
         <v>66</v>
       </c>
@@ -13867,7 +13902,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="44" t="s">
         <v>18</v>
       </c>
@@ -13890,7 +13925,7 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="44" t="s">
         <v>18</v>
       </c>
@@ -13913,7 +13948,7 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="44" t="s">
         <v>18</v>
       </c>
@@ -13936,7 +13971,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:9" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="44" t="s">
         <v>18</v>
       </c>
@@ -13961,7 +13996,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A64" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13971,7 +14006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -13979,21 +14014,21 @@
       <selection activeCell="B13" sqref="A1:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -14025,7 +14060,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
@@ -14053,7 +14088,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>18</v>
       </c>
@@ -14079,7 +14114,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>18</v>
       </c>
@@ -14105,7 +14140,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
@@ -14131,7 +14166,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>66</v>
       </c>
@@ -14157,7 +14192,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>18</v>
       </c>
@@ -14183,7 +14218,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>18</v>
       </c>
@@ -14209,7 +14244,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
@@ -14235,7 +14270,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>18</v>
       </c>
@@ -14261,7 +14296,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>18</v>
       </c>
@@ -14287,7 +14322,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
@@ -14313,7 +14348,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
         <v>18</v>
       </c>
@@ -14339,7 +14374,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>18</v>
       </c>
@@ -14365,7 +14400,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
         <v>18</v>
       </c>
@@ -14393,7 +14428,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
         <v>18</v>
       </c>
@@ -14419,7 +14454,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
         <v>18</v>
       </c>
@@ -14445,7 +14480,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
         <v>18</v>
       </c>
@@ -14471,7 +14506,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
@@ -14499,7 +14534,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
         <v>18</v>
       </c>
@@ -14525,7 +14560,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
         <v>18</v>
       </c>
@@ -14553,7 +14588,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
         <v>18</v>
       </c>
@@ -14579,7 +14614,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:10" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
         <v>18</v>
       </c>
@@ -14605,7 +14640,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39" t="s">
         <v>18</v>
       </c>
@@ -14633,7 +14668,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39" t="s">
         <v>18</v>
       </c>
@@ -14659,7 +14694,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
         <v>18</v>
       </c>
@@ -14687,7 +14722,7 @@
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14697,7 +14732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J67"/>
   <sheetViews>
@@ -14705,24 +14740,24 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="26" customWidth="1"/>
     <col min="3" max="3" width="20" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="26"/>
-    <col min="12" max="12" width="9.140625" style="26" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="26"/>
+    <col min="4" max="4" width="25.6640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="26" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="26"/>
+    <col min="12" max="12" width="9.109375" style="26" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -14754,7 +14789,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>18</v>
       </c>
@@ -14780,7 +14815,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>18</v>
       </c>
@@ -14808,7 +14843,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>18</v>
       </c>
@@ -14836,7 +14871,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>18</v>
       </c>
@@ -14864,7 +14899,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>18</v>
       </c>
@@ -14890,7 +14925,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
         <v>18</v>
       </c>
@@ -14916,7 +14951,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
         <v>18</v>
       </c>
@@ -14942,7 +14977,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
         <v>18</v>
       </c>
@@ -14968,7 +15003,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>18</v>
       </c>
@@ -14994,7 +15029,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>18</v>
       </c>
@@ -15020,7 +15055,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>18</v>
       </c>
@@ -15046,7 +15081,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>18</v>
       </c>
@@ -15074,7 +15109,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
         <v>18</v>
       </c>
@@ -15102,7 +15137,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
         <v>18</v>
       </c>
@@ -15130,7 +15165,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
         <v>18</v>
       </c>
@@ -15156,7 +15191,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
         <v>18</v>
       </c>
@@ -15182,7 +15217,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
         <v>18</v>
       </c>
@@ -15208,7 +15243,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>18</v>
       </c>
@@ -15234,7 +15269,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38" t="s">
         <v>18</v>
       </c>
@@ -15260,7 +15295,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
         <v>66</v>
       </c>
@@ -15286,7 +15321,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
         <v>18</v>
       </c>
@@ -15312,7 +15347,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
         <v>18</v>
       </c>
@@ -15338,7 +15373,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
         <v>66</v>
       </c>
@@ -15364,7 +15399,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
         <v>18</v>
       </c>
@@ -15390,7 +15425,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
         <v>18</v>
       </c>
@@ -15416,7 +15451,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
         <v>18</v>
       </c>
@@ -15442,7 +15477,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="38" t="s">
         <v>18</v>
       </c>
@@ -15468,7 +15503,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="38" t="s">
         <v>18</v>
       </c>
@@ -15494,7 +15529,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38" t="s">
         <v>18</v>
       </c>
@@ -15520,7 +15555,7 @@
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="38" t="s">
         <v>18</v>
       </c>
@@ -15546,7 +15581,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="38" t="s">
         <v>18</v>
       </c>
@@ -15572,7 +15607,7 @@
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38" t="s">
         <v>18</v>
       </c>
@@ -15598,7 +15633,7 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="38" t="s">
         <v>66</v>
       </c>
@@ -15624,7 +15659,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="38" t="s">
         <v>18</v>
       </c>
@@ -15650,7 +15685,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="38" t="s">
         <v>18</v>
       </c>
@@ -15676,7 +15711,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="38" t="s">
         <v>18</v>
       </c>
@@ -15702,7 +15737,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="38" t="s">
         <v>18</v>
       </c>
@@ -15728,7 +15763,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="38" t="s">
         <v>66</v>
       </c>
@@ -15754,7 +15789,7 @@
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="38" t="s">
         <v>18</v>
       </c>
@@ -15780,7 +15815,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="38" t="s">
         <v>18</v>
       </c>
@@ -15806,7 +15841,7 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="38" t="s">
         <v>18</v>
       </c>
@@ -15832,7 +15867,7 @@
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="38" t="s">
         <v>18</v>
       </c>
@@ -15858,7 +15893,7 @@
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="38" t="s">
         <v>18</v>
       </c>
@@ -15884,7 +15919,7 @@
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="38" t="s">
         <v>18</v>
       </c>
@@ -15910,7 +15945,7 @@
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="38" t="s">
         <v>18</v>
       </c>
@@ -15936,7 +15971,7 @@
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
         <v>18</v>
       </c>
@@ -15962,7 +15997,7 @@
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="38" t="s">
         <v>18</v>
       </c>
@@ -15988,7 +16023,7 @@
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="38" t="s">
         <v>18</v>
       </c>
@@ -16014,7 +16049,7 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="38" t="s">
         <v>18</v>
       </c>
@@ -16040,7 +16075,7 @@
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="38" t="s">
         <v>18</v>
       </c>
@@ -16066,7 +16101,7 @@
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="38" t="s">
         <v>18</v>
       </c>
@@ -16092,7 +16127,7 @@
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="38" t="s">
         <v>18</v>
       </c>
@@ -16118,7 +16153,7 @@
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="38" t="s">
         <v>18</v>
       </c>
@@ -16144,7 +16179,7 @@
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="38" t="s">
         <v>18</v>
       </c>
@@ -16170,7 +16205,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="38" t="s">
         <v>18</v>
       </c>
@@ -16196,7 +16231,7 @@
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="38" t="s">
         <v>18</v>
       </c>
@@ -16222,7 +16257,7 @@
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="38" t="s">
         <v>18</v>
       </c>
@@ -16248,7 +16283,7 @@
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="38" t="s">
         <v>18</v>
       </c>
@@ -16274,7 +16309,7 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="38" t="s">
         <v>18</v>
       </c>
@@ -16300,7 +16335,7 @@
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="38" t="s">
         <v>18</v>
       </c>
@@ -16326,7 +16361,7 @@
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="38" t="s">
         <v>18</v>
       </c>
@@ -16352,7 +16387,7 @@
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="38" t="s">
         <v>18</v>
       </c>
@@ -16378,7 +16413,7 @@
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="38" t="s">
         <v>18</v>
       </c>
@@ -16404,7 +16439,7 @@
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="38" t="s">
         <v>18</v>
       </c>
@@ -16430,7 +16465,7 @@
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="38" t="s">
         <v>18</v>
       </c>
@@ -16456,7 +16491,7 @@
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="38" t="s">
         <v>18</v>
       </c>
@@ -16484,7 +16519,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A67" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16494,27 +16529,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="15" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="21" style="7" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="6" max="6" width="12.5546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -16546,7 +16581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
@@ -16572,7 +16607,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>18</v>
       </c>
@@ -16598,7 +16633,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>18</v>
       </c>
@@ -16624,7 +16659,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
@@ -16652,7 +16687,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
@@ -16678,7 +16713,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>18</v>
       </c>
@@ -16704,7 +16739,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>66</v>
       </c>
@@ -16730,7 +16765,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
@@ -16756,7 +16791,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>18</v>
       </c>
@@ -16782,7 +16817,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>18</v>
       </c>
@@ -16808,7 +16843,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
@@ -16834,7 +16869,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
         <v>18</v>
       </c>
@@ -16860,7 +16895,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>18</v>
       </c>
@@ -16888,7 +16923,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
         <v>18</v>
       </c>
@@ -16916,7 +16951,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
         <v>18</v>
       </c>
@@ -16942,7 +16977,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
         <v>18</v>
       </c>
@@ -16968,7 +17003,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
         <v>18</v>
       </c>
@@ -16994,7 +17029,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
@@ -17020,7 +17055,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
         <v>18</v>
       </c>
@@ -17048,7 +17083,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
         <v>18</v>
       </c>
@@ -17074,7 +17109,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="1:10" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
         <v>18</v>
       </c>
@@ -17102,7 +17137,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A22" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17112,29 +17147,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="26" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="26" customWidth="1"/>
     <col min="7" max="7" width="18" style="26" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="26" customWidth="1"/>
     <col min="9" max="9" width="18" style="26" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875"/>
-    <col min="11" max="11" width="20.28515625" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="26"/>
+    <col min="10" max="10" width="8.88671875"/>
+    <col min="11" max="11" width="20.33203125" style="26" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -17163,7 +17198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>18</v>
       </c>
@@ -17189,7 +17224,7 @@
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
     </row>
-    <row r="3" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>18</v>
       </c>
@@ -17215,7 +17250,7 @@
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
     </row>
-    <row r="4" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>18</v>
       </c>
@@ -17241,7 +17276,7 @@
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>18</v>
       </c>
@@ -17267,7 +17302,7 @@
       <c r="I5" s="44"/>
       <c r="J5" s="44"/>
     </row>
-    <row r="6" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>18</v>
       </c>
@@ -17293,7 +17328,7 @@
       <c r="I6" s="44"/>
       <c r="J6" s="44"/>
     </row>
-    <row r="7" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
         <v>18</v>
       </c>
@@ -17319,7 +17354,7 @@
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
     </row>
-    <row r="8" spans="1:10" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
         <v>18</v>
       </c>
@@ -17343,7 +17378,7 @@
       </c>
       <c r="J8" s="44"/>
     </row>
-    <row r="9" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
         <v>18</v>
       </c>
@@ -17367,7 +17402,7 @@
       </c>
       <c r="J9" s="44"/>
     </row>
-    <row r="10" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>18</v>
       </c>
@@ -17391,7 +17426,7 @@
       </c>
       <c r="J10" s="44"/>
     </row>
-    <row r="11" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>18</v>
       </c>
@@ -17415,7 +17450,7 @@
       </c>
       <c r="J11" s="44"/>
     </row>
-    <row r="12" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>18</v>
       </c>
@@ -17439,7 +17474,7 @@
       </c>
       <c r="J12" s="44"/>
     </row>
-    <row r="13" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>18</v>
       </c>
@@ -17463,7 +17498,7 @@
       </c>
       <c r="J13" s="44"/>
     </row>
-    <row r="14" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
         <v>18</v>
       </c>
@@ -17487,7 +17522,7 @@
       </c>
       <c r="J14" s="44"/>
     </row>
-    <row r="15" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
         <v>18</v>
       </c>
@@ -17511,7 +17546,7 @@
       </c>
       <c r="J15" s="44"/>
     </row>
-    <row r="16" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
         <v>18</v>
       </c>
@@ -17535,7 +17570,7 @@
       </c>
       <c r="J16" s="44"/>
     </row>
-    <row r="17" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
         <v>18</v>
       </c>
@@ -17559,7 +17594,7 @@
       </c>
       <c r="J17" s="44"/>
     </row>
-    <row r="18" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
         <v>18</v>
       </c>
@@ -17583,7 +17618,7 @@
       </c>
       <c r="J18" s="44"/>
     </row>
-    <row r="19" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="43" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>18</v>
       </c>
@@ -17609,7 +17644,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17619,29 +17654,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="35"/>
+    <col min="1" max="1" width="9.109375" style="35"/>
     <col min="2" max="2" width="26" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="35" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="35"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="35"/>
+    <col min="3" max="3" width="17.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="35"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -17670,7 +17705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>18</v>
       </c>
@@ -17691,7 +17726,7 @@
       </c>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
         <v>18</v>
       </c>
@@ -17714,7 +17749,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>18</v>
       </c>
@@ -17739,7 +17774,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17749,7 +17784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J109"/>
   <sheetViews>
@@ -17757,18 +17792,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -17800,7 +17835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
@@ -17828,7 +17863,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>18</v>
       </c>
@@ -17856,7 +17891,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>18</v>
       </c>
@@ -17884,7 +17919,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
@@ -17912,7 +17947,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
@@ -17940,7 +17975,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>18</v>
       </c>
@@ -17968,7 +18003,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>18</v>
       </c>
@@ -17996,7 +18031,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
@@ -18024,7 +18059,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>18</v>
       </c>
@@ -18052,7 +18087,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>18</v>
       </c>
@@ -18080,7 +18115,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
@@ -18108,7 +18143,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
         <v>18</v>
       </c>
@@ -18136,7 +18171,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>18</v>
       </c>
@@ -18164,7 +18199,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
         <v>18</v>
       </c>
@@ -18192,7 +18227,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
         <v>18</v>
       </c>
@@ -18220,7 +18255,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
         <v>18</v>
       </c>
@@ -18248,7 +18283,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
         <v>18</v>
       </c>
@@ -18276,7 +18311,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
@@ -18304,7 +18339,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
         <v>18</v>
       </c>
@@ -18332,7 +18367,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
         <v>18</v>
       </c>
@@ -18360,7 +18395,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
         <v>18</v>
       </c>
@@ -18388,7 +18423,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
         <v>18</v>
       </c>
@@ -18416,7 +18451,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39" t="s">
         <v>18</v>
       </c>
@@ -18444,7 +18479,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39" t="s">
         <v>18</v>
       </c>
@@ -18472,7 +18507,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
         <v>18</v>
       </c>
@@ -18500,7 +18535,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="39" t="s">
         <v>18</v>
       </c>
@@ -18528,7 +18563,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="39" t="s">
         <v>18</v>
       </c>
@@ -18556,7 +18591,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="39" t="s">
         <v>18</v>
       </c>
@@ -18584,7 +18619,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="18"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
         <v>18</v>
       </c>
@@ -18612,7 +18647,7 @@
       <c r="I30" s="12"/>
       <c r="J30" s="18"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="39" t="s">
         <v>18</v>
       </c>
@@ -18640,7 +18675,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="39" t="s">
         <v>18</v>
       </c>
@@ -18668,7 +18703,7 @@
       <c r="I32" s="12"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="39" t="s">
         <v>18</v>
       </c>
@@ -18696,7 +18731,7 @@
       <c r="I33" s="12"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="39" t="s">
         <v>18</v>
       </c>
@@ -18724,7 +18759,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="39" t="s">
         <v>18</v>
       </c>
@@ -18752,7 +18787,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="39" t="s">
         <v>18</v>
       </c>
@@ -18780,7 +18815,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="39" t="s">
         <v>18</v>
       </c>
@@ -18808,7 +18843,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="18"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="39" t="s">
         <v>18</v>
       </c>
@@ -18836,7 +18871,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="39" t="s">
         <v>18</v>
       </c>
@@ -18864,7 +18899,7 @@
       <c r="I39" s="12"/>
       <c r="J39" s="18"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="39" t="s">
         <v>18</v>
       </c>
@@ -18892,7 +18927,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="18"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="39" t="s">
         <v>18</v>
       </c>
@@ -18920,7 +18955,7 @@
       <c r="I41" s="12"/>
       <c r="J41" s="18"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="39" t="s">
         <v>18</v>
       </c>
@@ -18948,7 +18983,7 @@
       <c r="I42" s="12"/>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="39" t="s">
         <v>18</v>
       </c>
@@ -18976,7 +19011,7 @@
       <c r="I43" s="12"/>
       <c r="J43" s="18"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="39" t="s">
         <v>18</v>
       </c>
@@ -19004,7 +19039,7 @@
       <c r="I44" s="12"/>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="39" t="s">
         <v>18</v>
       </c>
@@ -19032,7 +19067,7 @@
       <c r="I45" s="12"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="39" t="s">
         <v>18</v>
       </c>
@@ -19060,7 +19095,7 @@
       <c r="I46" s="12"/>
       <c r="J46" s="18"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="39" t="s">
         <v>18</v>
       </c>
@@ -19088,7 +19123,7 @@
       <c r="I47" s="12"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="39" t="s">
         <v>18</v>
       </c>
@@ -19116,7 +19151,7 @@
       <c r="I48" s="12"/>
       <c r="J48" s="18"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="39" t="s">
         <v>18</v>
       </c>
@@ -19144,7 +19179,7 @@
       <c r="I49" s="12"/>
       <c r="J49" s="18"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="39" t="s">
         <v>18</v>
       </c>
@@ -19172,7 +19207,7 @@
       <c r="I50" s="12"/>
       <c r="J50" s="18"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="39" t="s">
         <v>18</v>
       </c>
@@ -19200,7 +19235,7 @@
       <c r="I51" s="12"/>
       <c r="J51" s="18"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="39" t="s">
         <v>18</v>
       </c>
@@ -19228,7 +19263,7 @@
       <c r="I52" s="12"/>
       <c r="J52" s="18"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="39" t="s">
         <v>18</v>
       </c>
@@ -19256,7 +19291,7 @@
       <c r="I53" s="12"/>
       <c r="J53" s="18"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="39" t="s">
         <v>18</v>
       </c>
@@ -19284,7 +19319,7 @@
       <c r="I54" s="12"/>
       <c r="J54" s="18"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="39" t="s">
         <v>18</v>
       </c>
@@ -19312,7 +19347,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="18"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="39" t="s">
         <v>18</v>
       </c>
@@ -19340,7 +19375,7 @@
       <c r="I56" s="12"/>
       <c r="J56" s="18"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="39" t="s">
         <v>18</v>
       </c>
@@ -19368,7 +19403,7 @@
       <c r="I57" s="12"/>
       <c r="J57" s="18"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="39" t="s">
         <v>18</v>
       </c>
@@ -19396,7 +19431,7 @@
       <c r="I58" s="12"/>
       <c r="J58" s="18"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="39" t="s">
         <v>18</v>
       </c>
@@ -19424,7 +19459,7 @@
       <c r="I59" s="12"/>
       <c r="J59" s="18"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="39" t="s">
         <v>18</v>
       </c>
@@ -19452,7 +19487,7 @@
       <c r="I60" s="12"/>
       <c r="J60" s="18"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="39" t="s">
         <v>18</v>
       </c>
@@ -19480,7 +19515,7 @@
       <c r="I61" s="12"/>
       <c r="J61" s="18"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="39" t="s">
         <v>18</v>
       </c>
@@ -19508,7 +19543,7 @@
       <c r="I62" s="12"/>
       <c r="J62" s="18"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="39" t="s">
         <v>18</v>
       </c>
@@ -19536,7 +19571,7 @@
       <c r="I63" s="12"/>
       <c r="J63" s="18"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="39" t="s">
         <v>18</v>
       </c>
@@ -19564,7 +19599,7 @@
       <c r="I64" s="12"/>
       <c r="J64" s="18"/>
     </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="39" t="s">
         <v>18</v>
       </c>
@@ -19592,7 +19627,7 @@
       <c r="I65" s="12"/>
       <c r="J65" s="18"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="39" t="s">
         <v>18</v>
       </c>
@@ -19620,7 +19655,7 @@
       <c r="I66" s="12"/>
       <c r="J66" s="18"/>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="39" t="s">
         <v>18</v>
       </c>
@@ -19648,7 +19683,7 @@
       <c r="I67" s="12"/>
       <c r="J67" s="18"/>
     </row>
-    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="39" t="s">
         <v>18</v>
       </c>
@@ -19676,7 +19711,7 @@
       <c r="I68" s="12"/>
       <c r="J68" s="18"/>
     </row>
-    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="39" t="s">
         <v>66</v>
       </c>
@@ -19704,7 +19739,7 @@
       <c r="I69" s="12"/>
       <c r="J69" s="18"/>
     </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="39" t="s">
         <v>18</v>
       </c>
@@ -19732,7 +19767,7 @@
       <c r="I70" s="12"/>
       <c r="J70" s="18"/>
     </row>
-    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="39" t="s">
         <v>18</v>
       </c>
@@ -19760,7 +19795,7 @@
       <c r="I71" s="12"/>
       <c r="J71" s="18"/>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="39" t="s">
         <v>18</v>
       </c>
@@ -19788,7 +19823,7 @@
       <c r="I72" s="12"/>
       <c r="J72" s="18"/>
     </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="39" t="s">
         <v>18</v>
       </c>
@@ -19816,7 +19851,7 @@
       <c r="I73" s="12"/>
       <c r="J73" s="18"/>
     </row>
-    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="39" t="s">
         <v>18</v>
       </c>
@@ -19844,7 +19879,7 @@
       <c r="I74" s="12"/>
       <c r="J74" s="18"/>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="39" t="s">
         <v>18</v>
       </c>
@@ -19872,7 +19907,7 @@
       <c r="I75" s="12"/>
       <c r="J75" s="18"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="39" t="s">
         <v>18</v>
       </c>
@@ -19900,7 +19935,7 @@
       <c r="I76" s="12"/>
       <c r="J76" s="18"/>
     </row>
-    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="39" t="s">
         <v>18</v>
       </c>
@@ -19928,7 +19963,7 @@
       <c r="I77" s="12"/>
       <c r="J77" s="18"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="39" t="s">
         <v>18</v>
       </c>
@@ -19956,7 +19991,7 @@
       <c r="I78" s="12"/>
       <c r="J78" s="18"/>
     </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="39" t="s">
         <v>18</v>
       </c>
@@ -19984,7 +20019,7 @@
       <c r="I79" s="12"/>
       <c r="J79" s="18"/>
     </row>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="39" t="s">
         <v>18</v>
       </c>
@@ -20012,7 +20047,7 @@
       <c r="I80" s="12"/>
       <c r="J80" s="18"/>
     </row>
-    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="39" t="s">
         <v>18</v>
       </c>
@@ -20040,7 +20075,7 @@
       <c r="I81" s="12"/>
       <c r="J81" s="18"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="39" t="s">
         <v>18</v>
       </c>
@@ -20068,7 +20103,7 @@
       <c r="I82" s="12"/>
       <c r="J82" s="18"/>
     </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="39" t="s">
         <v>18</v>
       </c>
@@ -20096,7 +20131,7 @@
       <c r="I83" s="12"/>
       <c r="J83" s="18"/>
     </row>
-    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="39" t="s">
         <v>18</v>
       </c>
@@ -20124,7 +20159,7 @@
       <c r="I84" s="12"/>
       <c r="J84" s="18"/>
     </row>
-    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="39" t="s">
         <v>18</v>
       </c>
@@ -20152,7 +20187,7 @@
       <c r="I85" s="12"/>
       <c r="J85" s="18"/>
     </row>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="39" t="s">
         <v>18</v>
       </c>
@@ -20180,7 +20215,7 @@
       <c r="I86" s="12"/>
       <c r="J86" s="18"/>
     </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="39" t="s">
         <v>18</v>
       </c>
@@ -20208,7 +20243,7 @@
       <c r="I87" s="12"/>
       <c r="J87" s="18"/>
     </row>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="39" t="s">
         <v>18</v>
       </c>
@@ -20236,7 +20271,7 @@
       <c r="I88" s="12"/>
       <c r="J88" s="18"/>
     </row>
-    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="39" t="s">
         <v>18</v>
       </c>
@@ -20264,7 +20299,7 @@
       <c r="I89" s="12"/>
       <c r="J89" s="18"/>
     </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="39" t="s">
         <v>18</v>
       </c>
@@ -20292,7 +20327,7 @@
       <c r="I90" s="12"/>
       <c r="J90" s="18"/>
     </row>
-    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="39" t="s">
         <v>18</v>
       </c>
@@ -20320,7 +20355,7 @@
       <c r="I91" s="12"/>
       <c r="J91" s="18"/>
     </row>
-    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="39" t="s">
         <v>18</v>
       </c>
@@ -20348,7 +20383,7 @@
       <c r="I92" s="12"/>
       <c r="J92" s="18"/>
     </row>
-    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="39" t="s">
         <v>18</v>
       </c>
@@ -20376,7 +20411,7 @@
       <c r="I93" s="12"/>
       <c r="J93" s="18"/>
     </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="39" t="s">
         <v>18</v>
       </c>
@@ -20404,7 +20439,7 @@
       <c r="I94" s="12"/>
       <c r="J94" s="18"/>
     </row>
-    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="39" t="s">
         <v>18</v>
       </c>
@@ -20432,7 +20467,7 @@
       <c r="I95" s="12"/>
       <c r="J95" s="18"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="39" t="s">
         <v>18</v>
       </c>
@@ -20460,7 +20495,7 @@
       <c r="I96" s="12"/>
       <c r="J96" s="18"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="39" t="s">
         <v>18</v>
       </c>
@@ -20488,7 +20523,7 @@
       <c r="I97" s="12"/>
       <c r="J97" s="18"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="39" t="s">
         <v>18</v>
       </c>
@@ -20516,7 +20551,7 @@
       <c r="I98" s="12"/>
       <c r="J98" s="18"/>
     </row>
-    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="39" t="s">
         <v>18</v>
       </c>
@@ -20544,7 +20579,7 @@
       <c r="I99" s="12"/>
       <c r="J99" s="18"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="39" t="s">
         <v>18</v>
       </c>
@@ -20572,7 +20607,7 @@
       <c r="I100" s="12"/>
       <c r="J100" s="18"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="39" t="s">
         <v>18</v>
       </c>
@@ -20600,7 +20635,7 @@
       <c r="I101" s="12"/>
       <c r="J101" s="18"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="39" t="s">
         <v>18</v>
       </c>
@@ -20628,7 +20663,7 @@
       <c r="I102" s="12"/>
       <c r="J102" s="18"/>
     </row>
-    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="39" t="s">
         <v>18</v>
       </c>
@@ -20656,7 +20691,7 @@
       <c r="I103" s="12"/>
       <c r="J103" s="18"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="39" t="s">
         <v>18</v>
       </c>
@@ -20684,7 +20719,7 @@
       <c r="I104" s="12"/>
       <c r="J104" s="18"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="39" t="s">
         <v>18</v>
       </c>
@@ -20712,7 +20747,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="18"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="39" t="s">
         <v>66</v>
       </c>
@@ -20738,7 +20773,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="18"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="39" t="s">
         <v>66</v>
       </c>
@@ -20764,7 +20799,7 @@
       <c r="I107" s="12"/>
       <c r="J107" s="18"/>
     </row>
-    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="39" t="s">
         <v>18</v>
       </c>
@@ -20792,7 +20827,7 @@
       <c r="I108" s="12"/>
       <c r="J108" s="18"/>
     </row>
-    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="39" t="s">
         <v>18</v>
       </c>
@@ -20827,7 +20862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -20835,64 +20870,64 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>705</v>
       </c>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1ABEBE-A30C-4FD8-B897-DE0DDC6343A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A5E116-954D-457B-ABDC-CB38C6004D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GFS!$A$1:$I$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sysco!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sysco1!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">SyscoShop!$A$1:$J$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">SyscoShop!$A$1:$J$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">SyscoShop_t1!$A$1:$J$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">USF!$A$1:$J$62</definedName>
   </definedNames>
@@ -8943,8 +8943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>173</v>
@@ -9356,7 +9356,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>1109</v>
@@ -9384,7 +9384,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>1112</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>152</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>1117</v>
@@ -9568,7 +9568,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>1128</v>
@@ -9828,7 +9828,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>1177</v>
@@ -10174,7 +10174,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>561</v>
@@ -10392,7 +10392,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>1246</v>
@@ -10496,7 +10496,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>1272</v>
@@ -10682,7 +10682,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>452</v>
@@ -10708,7 +10708,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>1453</v>
@@ -10814,7 +10814,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>1484</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>1488</v>
@@ -10866,7 +10866,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>1494</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>1506</v>
@@ -11026,7 +11026,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>1520</v>
@@ -11160,7 +11160,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>1545</v>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>1549</v>
@@ -11450,7 +11450,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>1599</v>
@@ -11795,6 +11795,7 @@
       <c r="J106" s="49"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A106" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Yes,No"</formula1>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A5E116-954D-457B-ABDC-CB38C6004D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C92067-7BCE-4C40-8F59-3F1D0201B160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8943,8 +8943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>1192</v>
@@ -9958,7 +9958,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>1204</v>
@@ -10284,7 +10284,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>1231</v>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C92067-7BCE-4C40-8F59-3F1D0201B160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D9550E-F225-4747-87A8-073504FF2F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="1665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3859" uniqueCount="1669">
   <si>
     <t>Active</t>
   </si>
@@ -5036,13 +5036,25 @@
   </si>
   <si>
     <t>Savoy_Sysco</t>
+  </si>
+  <si>
+    <t>Marian's Bagels</t>
+  </si>
+  <si>
+    <t>Marian's_Bagels</t>
+  </si>
+  <si>
+    <t>Mellowbryan@gmail.com</t>
+  </si>
+  <si>
+    <t>Nalasdad@17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5122,6 +5134,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5333,7 +5352,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5482,6 +5501,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -8941,10 +8980,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11772,27 +11811,53 @@
       <c r="A106" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="24" t="s">
         <v>1664</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="24" t="s">
         <v>1663</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="24" t="s">
         <v>1661</v>
       </c>
-      <c r="F106" s="19" t="s">
+      <c r="F106" s="24" t="s">
         <v>1662</v>
       </c>
-      <c r="G106" s="19" t="s">
+      <c r="G106" s="24" t="s">
         <v>1656</v>
       </c>
-      <c r="H106" s="50"/>
-      <c r="I106" s="49"/>
-      <c r="J106" s="49"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" s="61" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C107" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D107" s="61" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E107" s="63" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F107" s="64" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G107" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="H107" s="55"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="55"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
@@ -11801,8 +11866,11 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E107" r:id="rId1" display="mailto:Mellowbryan@gmail.com" xr:uid="{CCD2B31E-FAE2-4133-8691-3AACF84120DA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D9550E-F225-4747-87A8-073504FF2F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5FE47C-7146-4BC0-A972-54BEBDA0F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3859" uniqueCount="1669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="1674">
   <si>
     <t>Active</t>
   </si>
@@ -5048,6 +5048,21 @@
   </si>
   <si>
     <t>Nalasdad@17</t>
+  </si>
+  <si>
+    <t>domingo@kylegseafood.com</t>
+  </si>
+  <si>
+    <t>Damp1169$</t>
+  </si>
+  <si>
+    <t>MAIN Inventory List</t>
+  </si>
+  <si>
+    <t>Kyle G's</t>
+  </si>
+  <si>
+    <t>Kyle_Sysco</t>
   </si>
 </sst>
 </file>
@@ -8980,10 +8995,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11859,6 +11874,32 @@
       <c r="I107" s="55"/>
       <c r="J107" s="55"/>
     </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="61" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C108" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108" s="61" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E108" s="63" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F108" s="64" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G108" s="65" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H108" s="55"/>
+      <c r="I108" s="55"/>
+      <c r="J108" s="55"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
   <dataValidations count="1">
@@ -11868,9 +11909,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E107" r:id="rId1" display="mailto:Mellowbryan@gmail.com" xr:uid="{CCD2B31E-FAE2-4133-8691-3AACF84120DA}"/>
+    <hyperlink ref="E108" r:id="rId2" xr:uid="{66D7E23E-3471-4BB7-BE42-74D7CBC14C17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5FE47C-7146-4BC0-A972-54BEBDA0F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABBB628-51D0-463D-99EC-F67E77045449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17304" windowHeight="8892" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheney" sheetId="1" r:id="rId1"/>
@@ -8997,8 +8997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>561</v>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABBB628-51D0-463D-99EC-F67E77045449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530D37E5-3E2E-483A-83C4-4D2D80AF074B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17304" windowHeight="8892" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="1678">
   <si>
     <t>Active</t>
   </si>
@@ -5063,6 +5063,18 @@
   </si>
   <si>
     <t>Kyle_Sysco</t>
+  </si>
+  <si>
+    <t>PoloGrill_Sysco</t>
+  </si>
+  <si>
+    <t>bill@edit-x.com</t>
+  </si>
+  <si>
+    <t>Polo Grill</t>
+  </si>
+  <si>
+    <t>Pologrill2855#</t>
   </si>
 </sst>
 </file>
@@ -5367,7 +5379,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5536,6 +5548,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -8995,10 +9008,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11900,6 +11913,32 @@
       <c r="I108" s="55"/>
       <c r="J108" s="55"/>
     </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="61" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C109" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D109" s="61" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E109" s="66" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F109" s="61" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G109" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="H109" s="55"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="55"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
   <dataValidations count="1">
@@ -11910,9 +11949,10 @@
   <hyperlinks>
     <hyperlink ref="E107" r:id="rId1" display="mailto:Mellowbryan@gmail.com" xr:uid="{CCD2B31E-FAE2-4133-8691-3AACF84120DA}"/>
     <hyperlink ref="E108" r:id="rId2" xr:uid="{66D7E23E-3471-4BB7-BE42-74D7CBC14C17}"/>
+    <hyperlink ref="E109" r:id="rId3" display="mailto:bill@edit-x.com" xr:uid="{A8D541C9-FA59-48AA-9E19-CD2F82003119}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BCCFC5-8B6F-42AE-98BD-A04C9A6A64AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31828F2D-690C-46C0-B367-33AC7E76D673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="1678">
   <si>
     <t>Active</t>
   </si>
@@ -5075,12 +5075,6 @@
   </si>
   <si>
     <t>Pologrill2855#</t>
-  </si>
-  <si>
-    <t>Shad</t>
-  </si>
-  <si>
-    <t>Shad_Sysco</t>
   </si>
 </sst>
 </file>
@@ -5385,7 +5379,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5550,8 +5544,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -9013,8 +9005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F100" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11941,17 +11933,17 @@
       <c r="J109" s="45"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B110" s="61" t="s">
-        <v>1679</v>
+      <c r="A110" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="51" t="s">
+        <v>1506</v>
       </c>
       <c r="C110" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="D110" s="61" t="s">
-        <v>1678</v>
+      <c r="D110" s="51" t="s">
+        <v>1507</v>
       </c>
       <c r="E110" s="45" t="s">
         <v>1508</v>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31828F2D-690C-46C0-B367-33AC7E76D673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A03526E-D7D1-4E93-B064-8F588C3A38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="1679">
   <si>
     <t>Active</t>
   </si>
@@ -5075,6 +5075,9 @@
   </si>
   <si>
     <t>Pologrill2855#</t>
+  </si>
+  <si>
+    <t>022-949876</t>
   </si>
 </sst>
 </file>
@@ -9005,8 +9008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="C96" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11954,8 +11957,8 @@
       <c r="G110" s="45" t="s">
         <v>1656</v>
       </c>
-      <c r="H110" s="57">
-        <v>949876</v>
+      <c r="H110" s="57" t="s">
+        <v>1678</v>
       </c>
       <c r="I110" s="45"/>
       <c r="J110" s="45"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A03526E-D7D1-4E93-B064-8F588C3A38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB813D5-3355-43BF-880A-BE55E59B3C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="1679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="1681">
   <si>
     <t>Active</t>
   </si>
@@ -5078,6 +5078,12 @@
   </si>
   <si>
     <t>022-949876</t>
+  </si>
+  <si>
+    <t>FMK - HARVEST</t>
+  </si>
+  <si>
+    <t>HARVEST_Sysco</t>
   </si>
 </sst>
 </file>
@@ -9008,8 +9014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C96" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11940,13 +11946,13 @@
         <v>18</v>
       </c>
       <c r="B110" s="51" t="s">
-        <v>1506</v>
+        <v>1680</v>
       </c>
       <c r="C110" s="52" t="s">
         <v>157</v>
       </c>
       <c r="D110" s="51" t="s">
-        <v>1507</v>
+        <v>1679</v>
       </c>
       <c r="E110" s="45" t="s">
         <v>1508</v>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB813D5-3355-43BF-880A-BE55E59B3C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF85E8-4F50-4FE6-9001-BCB93E565E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17304" windowHeight="8892" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheney" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="1681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="1682">
   <si>
     <t>Active</t>
   </si>
@@ -5084,6 +5084,9 @@
   </si>
   <si>
     <t>HARVEST_Sysco</t>
+  </si>
+  <si>
+    <t>Argyle934!</t>
   </si>
 </sst>
 </file>
@@ -5388,7 +5391,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5553,6 +5556,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -9014,8 +9018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10163,7 +10167,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="34" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>1212</v>
@@ -10553,8 +10557,8 @@
       <c r="E57" s="17" t="s">
         <v>1269</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>1270</v>
+      <c r="F57" s="60" t="s">
+        <v>1681</v>
       </c>
       <c r="G57" s="17" t="s">
         <v>1271</v>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF85E8-4F50-4FE6-9001-BCB93E565E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025DA1F1-60C4-4F47-8416-686C5EA39DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17304" windowHeight="8892" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9018,8 +9018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>1322</v>
@@ -11469,7 +11469,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="34" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>1584</v>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025DA1F1-60C4-4F47-8416-686C5EA39DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC0DD63-16E8-48B1-A4DC-51990EFF8E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17304" windowHeight="8892" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="1682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="1686">
   <si>
     <t>Active</t>
   </si>
@@ -5087,6 +5087,18 @@
   </si>
   <si>
     <t>Argyle934!</t>
+  </si>
+  <si>
+    <t>Boatyard_Sysco</t>
+  </si>
+  <si>
+    <t>Boatyard</t>
+  </si>
+  <si>
+    <t>cmiracolo@therestaurantpeople.com</t>
+  </si>
+  <si>
+    <t>CBIsucks222</t>
   </si>
 </sst>
 </file>
@@ -5205,7 +5217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -5383,6 +5395,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5391,7 +5416,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5557,6 +5582,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -9016,10 +9048,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9667,7 +9699,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>1130</v>
@@ -11946,32 +11978,58 @@
       <c r="J109" s="45"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B110" s="51" t="s">
+      <c r="A110" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="62" t="s">
         <v>1680</v>
       </c>
-      <c r="C110" s="52" t="s">
+      <c r="C110" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="D110" s="51" t="s">
+      <c r="D110" s="62" t="s">
         <v>1679</v>
       </c>
-      <c r="E110" s="45" t="s">
+      <c r="E110" s="61" t="s">
         <v>1508</v>
       </c>
-      <c r="F110" s="45" t="s">
+      <c r="F110" s="61" t="s">
         <v>1509</v>
       </c>
-      <c r="G110" s="45" t="s">
+      <c r="G110" s="61" t="s">
         <v>1656</v>
       </c>
-      <c r="H110" s="57" t="s">
+      <c r="H110" s="64" t="s">
         <v>1678</v>
       </c>
-      <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="61"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="51" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C111" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" s="55" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E111" s="54" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F111" s="54" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G111" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="H111" s="57"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC0DD63-16E8-48B1-A4DC-51990EFF8E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CEC241-36B1-409F-894D-8A6042766BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17304" windowHeight="8892" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="1687">
   <si>
     <t>Active</t>
   </si>
@@ -5099,6 +5099,9 @@
   </si>
   <si>
     <t>CBIsucks222</t>
+  </si>
+  <si>
+    <t>Eggplant2022</t>
   </si>
 </sst>
 </file>
@@ -5416,7 +5419,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5588,7 +5591,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -9050,8 +9052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11754,7 +11756,7 @@
         <v>1635</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>1385</v>
+        <v>1686</v>
       </c>
       <c r="G101" s="17" t="s">
         <v>1636</v>
@@ -12006,7 +12008,7 @@
       <c r="J110" s="61"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="65" t="s">
+      <c r="A111" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B111" s="51" t="s">

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CEC241-36B1-409F-894D-8A6042766BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62C8510-48E2-4703-A5BC-D734BFD6F484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17304" windowHeight="8892" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="1688">
   <si>
     <t>Active</t>
   </si>
@@ -5102,6 +5102,9 @@
   </si>
   <si>
     <t>Eggplant2022</t>
+  </si>
+  <si>
+    <t>raymond.vasquez1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -5419,7 +5422,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5591,6 +5594,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -9052,8 +9056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10588,8 +10592,8 @@
       <c r="D57" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>1269</v>
+      <c r="E57" s="65" t="s">
+        <v>1687</v>
       </c>
       <c r="F57" s="60" t="s">
         <v>1681</v>
@@ -12044,9 +12048,10 @@
     <hyperlink ref="E107" r:id="rId1" display="mailto:Mellowbryan@gmail.com" xr:uid="{CCD2B31E-FAE2-4133-8691-3AACF84120DA}"/>
     <hyperlink ref="E108" r:id="rId2" xr:uid="{66D7E23E-3471-4BB7-BE42-74D7CBC14C17}"/>
     <hyperlink ref="E109" r:id="rId3" display="mailto:bill@edit-x.com" xr:uid="{A8D541C9-FA59-48AA-9E19-CD2F82003119}"/>
+    <hyperlink ref="E57" r:id="rId4" display="mailto:raymond.vasquez1@gmail.com" xr:uid="{8D6CB666-B871-474E-9988-B3F6EE7977EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62C8510-48E2-4703-A5BC-D734BFD6F484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC6F701-7EF0-411C-BB07-906DE38B9C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17304" windowHeight="8892" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheney" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="1689">
   <si>
     <t>Active</t>
   </si>
@@ -5105,6 +5105,9 @@
   </si>
   <si>
     <t>raymond.vasquez1@gmail.com</t>
+  </si>
+  <si>
+    <t>016-680215</t>
   </si>
 </sst>
 </file>
@@ -9056,8 +9059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="F100" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12033,7 +12036,9 @@
       <c r="G111" s="55" t="s">
         <v>391</v>
       </c>
-      <c r="H111" s="57"/>
+      <c r="H111" s="57" t="s">
+        <v>1688</v>
+      </c>
       <c r="I111" s="45"/>
       <c r="J111" s="45"/>
     </row>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC6F701-7EF0-411C-BB07-906DE38B9C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40786A73-0872-45F8-93C7-75A4A71A31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="1690">
   <si>
     <t>Active</t>
   </si>
@@ -5108,6 +5108,9 @@
   </si>
   <si>
     <t>016-680215</t>
+  </si>
+  <si>
+    <t>DiningEdge 2023</t>
   </si>
 </sst>
 </file>
@@ -9059,8 +9062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F100" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="D79" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11556,7 +11559,7 @@
         <v>1648</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>1472</v>
+        <v>1689</v>
       </c>
       <c r="H93" s="42"/>
       <c r="I93" s="41"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\de-og-sysco-shop-main\de-og-sysco-shop-main\src\main\java\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40786A73-0872-45F8-93C7-75A4A71A31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF68BD-5A64-4618-B05E-FBCE5F2E0AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheney" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="1690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="1693">
   <si>
     <t>Active</t>
   </si>
@@ -5111,6 +5111,15 @@
   </si>
   <si>
     <t>DiningEdge 2023</t>
+  </si>
+  <si>
+    <t>SidewindersWestbank_Sysco</t>
+  </si>
+  <si>
+    <t>Blue Collar Restaurant Group - Sidewinders Westbank</t>
+  </si>
+  <si>
+    <t>dining edge list</t>
   </si>
 </sst>
 </file>
@@ -5428,7 +5437,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5601,6 +5610,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -9060,17 +9075,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D79" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="53" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -12018,32 +12033,60 @@
       <c r="J110" s="61"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B111" s="51" t="s">
+      <c r="A111" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="62" t="s">
         <v>1682</v>
       </c>
-      <c r="C111" s="55" t="s">
+      <c r="C111" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="D111" s="55" t="s">
+      <c r="D111" s="66" t="s">
         <v>1683</v>
       </c>
-      <c r="E111" s="54" t="s">
+      <c r="E111" s="67" t="s">
         <v>1684</v>
       </c>
-      <c r="F111" s="54" t="s">
+      <c r="F111" s="67" t="s">
         <v>1685</v>
       </c>
-      <c r="G111" s="55" t="s">
+      <c r="G111" s="66" t="s">
         <v>391</v>
       </c>
       <c r="H111" s="57" t="s">
         <v>1688</v>
       </c>
-      <c r="I111" s="45"/>
-      <c r="J111" s="45"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="61"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="55" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C112" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" s="55" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E112" s="55" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F112" s="55" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G112" s="55" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H112" s="45" t="s">
+        <v>1688</v>
+      </c>
+      <c r="I112" s="45"/>
+      <c r="J112" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF68BD-5A64-4618-B05E-FBCE5F2E0AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D696FD-556E-4152-8068-AC3EBA74FB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheney" sheetId="1" r:id="rId1"/>
@@ -9077,8 +9077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11528,7 +11528,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="34" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>1584</v>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D696FD-556E-4152-8068-AC3EBA74FB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3923E743-8B01-4683-BA78-E82D8D4EBB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="1698">
   <si>
     <t>Active</t>
   </si>
@@ -5120,13 +5120,28 @@
   </si>
   <si>
     <t>dining edge list</t>
+  </si>
+  <si>
+    <t>032-410563</t>
+  </si>
+  <si>
+    <t>HornandCantle_Sysco</t>
+  </si>
+  <si>
+    <t>Horn and Cantle</t>
+  </si>
+  <si>
+    <t>hallison@hornandcantle.com</t>
+  </si>
+  <si>
+    <t>Whiskey21!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5212,6 +5227,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF6600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF6600"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5437,7 +5459,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5614,6 +5636,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9075,10 +9101,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11392,7 +11418,9 @@
       <c r="G86" s="17" t="s">
         <v>1472</v>
       </c>
-      <c r="H86" s="42"/>
+      <c r="H86" s="42" t="s">
+        <v>1693</v>
+      </c>
       <c r="I86" s="41"/>
       <c r="J86" s="41"/>
     </row>
@@ -12061,32 +12089,58 @@
       <c r="J111" s="61"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B112" s="55" t="s">
+      <c r="A112" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="66" t="s">
         <v>1690</v>
       </c>
-      <c r="C112" s="55" t="s">
+      <c r="C112" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="D112" s="55" t="s">
+      <c r="D112" s="66" t="s">
         <v>1691</v>
       </c>
-      <c r="E112" s="55" t="s">
+      <c r="E112" s="66" t="s">
         <v>1403</v>
       </c>
-      <c r="F112" s="55" t="s">
+      <c r="F112" s="66" t="s">
         <v>1404</v>
       </c>
-      <c r="G112" s="55" t="s">
+      <c r="G112" s="66" t="s">
         <v>1692</v>
       </c>
-      <c r="H112" s="45" t="s">
+      <c r="H112" s="61" t="s">
         <v>1688</v>
       </c>
-      <c r="I112" s="45"/>
-      <c r="J112" s="45"/>
+      <c r="I112" s="61"/>
+      <c r="J112" s="61"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" s="55" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" s="55" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E113" s="53" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F113" s="69" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G113" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="H113" s="57"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
@@ -12100,9 +12154,10 @@
     <hyperlink ref="E108" r:id="rId2" xr:uid="{66D7E23E-3471-4BB7-BE42-74D7CBC14C17}"/>
     <hyperlink ref="E109" r:id="rId3" display="mailto:bill@edit-x.com" xr:uid="{A8D541C9-FA59-48AA-9E19-CD2F82003119}"/>
     <hyperlink ref="E57" r:id="rId4" display="mailto:raymond.vasquez1@gmail.com" xr:uid="{8D6CB666-B871-474E-9988-B3F6EE7977EC}"/>
+    <hyperlink ref="E113" r:id="rId5" display="mailto:hallison@hornandcantle.com" xr:uid="{0CCA7460-4FDA-42E6-8B70-77E178B8CF20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3923E743-8B01-4683-BA78-E82D8D4EBB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B36140-1B1C-4522-9DE5-895932242C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="1699">
   <si>
     <t>Active</t>
   </si>
@@ -5135,6 +5135,9 @@
   </si>
   <si>
     <t>Whiskey21!</t>
+  </si>
+  <si>
+    <t>Dining edge 3</t>
   </si>
 </sst>
 </file>
@@ -5459,7 +5462,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5638,7 +5641,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9103,8 +9105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10620,7 +10622,7 @@
         <v>1263</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>1264</v>
+        <v>1698</v>
       </c>
       <c r="H56" s="42"/>
       <c r="I56" s="41"/>
@@ -12117,7 +12119,7 @@
       <c r="J112" s="61"/>
     </row>
     <row r="113" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="68" t="s">
+      <c r="A113" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B113" s="55" t="s">
@@ -12132,7 +12134,7 @@
       <c r="E113" s="53" t="s">
         <v>1696</v>
       </c>
-      <c r="F113" s="69" t="s">
+      <c r="F113" s="68" t="s">
         <v>1697</v>
       </c>
       <c r="G113" s="55" t="s">

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B36140-1B1C-4522-9DE5-895932242C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709F5A85-D449-4C11-B5FB-04AD142B95F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="1699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="1702">
   <si>
     <t>Active</t>
   </si>
@@ -5138,13 +5138,22 @@
   </si>
   <si>
     <t>Dining edge 3</t>
+  </si>
+  <si>
+    <t>Ocotlan1980</t>
+  </si>
+  <si>
+    <t>jaci@aprestaurantgroup.com</t>
+  </si>
+  <si>
+    <t>Master OG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5241,6 +5250,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5462,7 +5477,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5643,6 +5658,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9105,8 +9129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9752,7 +9776,7 @@
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
         <v>66</v>
       </c>
@@ -9778,7 +9802,7 @@
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
         <v>18</v>
       </c>
@@ -9791,14 +9815,14 @@
       <c r="D25" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>545</v>
+      <c r="E25" s="69" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G25" s="71" t="s">
+        <v>1701</v>
       </c>
       <c r="H25" s="42"/>
       <c r="I25" s="41"/>
@@ -10012,7 +10036,7 @@
       <c r="I33" s="41"/>
       <c r="J33" s="41"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>18</v>
       </c>
@@ -10038,7 +10062,7 @@
       <c r="I34" s="41"/>
       <c r="J34" s="41"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>18</v>
       </c>
@@ -10051,13 +10075,13 @@
       <c r="D35" s="17" t="s">
         <v>1185</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="69" t="s">
         <v>1186</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G35" s="17" t="s">
+      <c r="F35" s="70" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G35" s="71" t="s">
         <v>1188</v>
       </c>
       <c r="H35" s="42"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709F5A85-D449-4C11-B5FB-04AD142B95F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3A2D22-1870-44CC-AC31-8C8E5C8B7114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5143,10 +5143,10 @@
     <t>Ocotlan1980</t>
   </si>
   <si>
-    <t>jaci@aprestaurantgroup.com</t>
-  </si>
-  <si>
     <t>Master OG</t>
+  </si>
+  <si>
+    <t>Annettewaller29@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -5278,7 +5278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -5469,6 +5469,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5477,7 +5492,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5667,6 +5682,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9129,8 +9150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9815,14 +9836,14 @@
       <c r="D25" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="72" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G25" s="71" t="s">
         <v>1700</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G25" s="71" t="s">
-        <v>1701</v>
       </c>
       <c r="H25" s="42"/>
       <c r="I25" s="41"/>
@@ -12181,9 +12202,10 @@
     <hyperlink ref="E109" r:id="rId3" display="mailto:bill@edit-x.com" xr:uid="{A8D541C9-FA59-48AA-9E19-CD2F82003119}"/>
     <hyperlink ref="E57" r:id="rId4" display="mailto:raymond.vasquez1@gmail.com" xr:uid="{8D6CB666-B871-474E-9988-B3F6EE7977EC}"/>
     <hyperlink ref="E113" r:id="rId5" display="mailto:hallison@hornandcantle.com" xr:uid="{0CCA7460-4FDA-42E6-8B70-77E178B8CF20}"/>
+    <hyperlink ref="E25" r:id="rId6" display="mailto:Annettewaller29@gmail.com" xr:uid="{9A6B3AD2-E096-4E36-9012-669512C9808A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3A2D22-1870-44CC-AC31-8C8E5C8B7114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FA8946-D061-4A1C-92D3-0E8E4E7721AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="1702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="1704">
   <si>
     <t>Active</t>
   </si>
@@ -5147,6 +5147,12 @@
   </si>
   <si>
     <t>Annettewaller29@gmail.com</t>
+  </si>
+  <si>
+    <t>adriana@diningedge.com</t>
+  </si>
+  <si>
+    <t>Hamilton2023!</t>
   </si>
 </sst>
 </file>
@@ -9150,8 +9156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9953,7 +9959,7 @@
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
         <v>18</v>
       </c>
@@ -9979,7 +9985,7 @@
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
         <v>18</v>
       </c>
@@ -9992,14 +9998,14 @@
       <c r="D31" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>1168</v>
+      <c r="E31" s="69" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F31" s="71" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G31" s="71" t="s">
+        <v>391</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="41"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FA8946-D061-4A1C-92D3-0E8E4E7721AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DAC069-0CAA-43C2-ADAB-F7C78877B37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="1708">
   <si>
     <t>Active</t>
   </si>
@@ -5153,6 +5153,18 @@
   </si>
   <si>
     <t>Hamilton2023!</t>
+  </si>
+  <si>
+    <t>JeffreyMiller_Sysco</t>
+  </si>
+  <si>
+    <t>Jeffrey Miller Catering</t>
+  </si>
+  <si>
+    <t>angelog@jamcater.com</t>
+  </si>
+  <si>
+    <t>20SouthUnion</t>
   </si>
 </sst>
 </file>
@@ -5284,7 +5296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -5490,6 +5502,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5498,7 +5536,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5695,6 +5733,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -9154,10 +9199,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:G31"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12169,7 +12214,7 @@
       <c r="I112" s="61"/>
       <c r="J112" s="61"/>
     </row>
-    <row r="113" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="45" t="s">
         <v>18</v>
       </c>
@@ -12194,6 +12239,29 @@
       <c r="H113" s="57"/>
       <c r="I113" s="45"/>
       <c r="J113" s="45"/>
+    </row>
+    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" s="69" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C114" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" s="71" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E114" s="74" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F114" s="75" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G114" s="71" t="s">
+        <v>391</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DAC069-0CAA-43C2-ADAB-F7C78877B37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043128AE-680F-435D-8229-F0CAFB17D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="1711">
   <si>
     <t>Active</t>
   </si>
@@ -5165,6 +5165,15 @@
   </si>
   <si>
     <t>20SouthUnion</t>
+  </si>
+  <si>
+    <t>Carlino's Market</t>
+  </si>
+  <si>
+    <t>angela@carlinosmarket.com</t>
+  </si>
+  <si>
+    <t>2Castle431!!</t>
   </si>
 </sst>
 </file>
@@ -5296,7 +5305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -5502,32 +5511,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5715,9 +5698,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5733,13 +5713,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -9199,10 +9182,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9887,13 +9870,13 @@
       <c r="D25" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="71" t="s">
         <v>1701</v>
       </c>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="72" t="s">
         <v>1140</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="70" t="s">
         <v>1700</v>
       </c>
       <c r="H25" s="42"/>
@@ -10043,13 +10026,13 @@
       <c r="D31" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="69" t="s">
+      <c r="E31" s="68" t="s">
         <v>1702</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="70" t="s">
         <v>1703</v>
       </c>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="70" t="s">
         <v>391</v>
       </c>
       <c r="H31" s="42"/>
@@ -10147,13 +10130,13 @@
       <c r="D35" s="17" t="s">
         <v>1185</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="68" t="s">
         <v>1186</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="69" t="s">
         <v>1699</v>
       </c>
-      <c r="G35" s="71" t="s">
+      <c r="G35" s="70" t="s">
         <v>1188</v>
       </c>
       <c r="H35" s="42"/>
@@ -12214,54 +12197,83 @@
       <c r="I112" s="61"/>
       <c r="J112" s="61"/>
     </row>
-    <row r="113" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B113" s="55" t="s">
+    <row r="113" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" s="66" t="s">
         <v>1694</v>
       </c>
-      <c r="C113" s="55" t="s">
+      <c r="C113" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="D113" s="55" t="s">
+      <c r="D113" s="66" t="s">
         <v>1695</v>
       </c>
-      <c r="E113" s="53" t="s">
+      <c r="E113" s="73" t="s">
         <v>1696</v>
       </c>
-      <c r="F113" s="68" t="s">
+      <c r="F113" s="74" t="s">
         <v>1697</v>
       </c>
-      <c r="G113" s="55" t="s">
+      <c r="G113" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="H113" s="57"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
-    </row>
-    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B114" s="69" t="s">
+      <c r="H113" s="64"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="61"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" s="55" t="s">
         <v>1704</v>
       </c>
-      <c r="C114" s="71" t="s">
+      <c r="C114" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="D114" s="71" t="s">
+      <c r="D114" s="55" t="s">
         <v>1705</v>
       </c>
-      <c r="E114" s="74" t="s">
+      <c r="E114" s="75" t="s">
         <v>1706</v>
       </c>
       <c r="F114" s="75" t="s">
         <v>1707</v>
       </c>
-      <c r="G114" s="71" t="s">
+      <c r="G114" s="55" t="s">
         <v>391</v>
       </c>
+      <c r="H114" s="57"/>
+      <c r="I114" s="45"/>
+      <c r="J114" s="45"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" s="55" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E115" s="55" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F115" s="54" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G115" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="H115" s="57"/>
+      <c r="I115" s="45"/>
+      <c r="J115" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043128AE-680F-435D-8229-F0CAFB17D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5492AA-9CBF-4AEC-8721-D440E1163367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5519,7 +5519,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5722,7 +5722,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -9184,8 +9183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9567,56 +9566,56 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1322</v>
+        <v>1649</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>966</v>
+        <v>1650</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>1323</v>
+        <v>1651</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>1456</v>
+        <v>1652</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>1325</v>
+        <v>391</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>1326</v>
+        <v>1653</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1109</v>
+        <v>1322</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>446</v>
+        <v>966</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>1110</v>
+        <v>1323</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>447</v>
+        <v>1456</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>1111</v>
+        <v>1325</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>1457</v>
+        <v>1326</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
@@ -9626,24 +9625,26 @@
         <v>18</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>1005</v>
+        <v>446</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>1007</v>
+        <v>447</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H16" s="42"/>
+        <v>1111</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>1457</v>
+      </c>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
     </row>
@@ -9652,22 +9653,22 @@
         <v>18</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>287</v>
+        <v>1114</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="41"/>
@@ -9678,26 +9679,24 @@
         <v>18</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>152</v>
+        <v>1115</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>109</v>
+        <v>1010</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>1327</v>
+        <v>1116</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>1328</v>
+        <v>1023</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>1329</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>1330</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="H18" s="42"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
     </row>
@@ -9706,24 +9705,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1117</v>
+        <v>152</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>372</v>
+        <v>109</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>1511</v>
+        <v>1327</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>1512</v>
+        <v>1328</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>1513</v>
-      </c>
-      <c r="H19" s="42"/>
+        <v>1329</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>1330</v>
+      </c>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
     </row>
@@ -9732,22 +9733,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>203</v>
+        <v>372</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>1122</v>
+        <v>1511</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>1588</v>
+        <v>1512</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>1579</v>
+        <v>1513</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="41"/>
@@ -9758,22 +9759,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1331</v>
+        <v>1121</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>1397</v>
+        <v>203</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>1236</v>
+        <v>1122</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>120</v>
+        <v>1588</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>391</v>
+        <v>1579</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="41"/>
@@ -9784,22 +9785,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1125</v>
+        <v>1331</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>50</v>
+        <v>1397</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>1126</v>
+        <v>1236</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>1389</v>
+        <v>120</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>1127</v>
+        <v>391</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="41"/>
@@ -9810,48 +9811,48 @@
         <v>18</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>740</v>
+        <v>50</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>1332</v>
+        <v>1126</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>1333</v>
+        <v>1389</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>1131</v>
+        <v>740</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>1132</v>
+        <v>1332</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>1378</v>
+        <v>1129</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="41"/>
@@ -9859,51 +9860,51 @@
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="71" t="s">
-        <v>1701</v>
-      </c>
-      <c r="F25" s="72" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G25" s="70" t="s">
-        <v>1700</v>
+        <v>1131</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>1378</v>
       </c>
       <c r="H25" s="42"/>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>1426</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>1578</v>
+        <v>169</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G26" s="70" t="s">
+        <v>1700</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="41"/>
@@ -9914,19 +9915,19 @@
         <v>18</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>1641</v>
+        <v>1142</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>1642</v>
+        <v>1426</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>1578</v>
@@ -9940,19 +9941,19 @@
         <v>18</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>1148</v>
+        <v>1641</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>1149</v>
+        <v>1642</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>1578</v>
@@ -9966,19 +9967,19 @@
         <v>18</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>1556</v>
+        <v>1148</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>1557</v>
+        <v>1149</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>1578</v>
@@ -9987,27 +9988,27 @@
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>829</v>
+        <v>101</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>1158</v>
+        <v>1556</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>1159</v>
+        <v>1557</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>1160</v>
+        <v>1578</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="41"/>
@@ -10018,48 +10019,48 @@
         <v>18</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="68" t="s">
-        <v>1702</v>
-      </c>
-      <c r="F31" s="70" t="s">
-        <v>1703</v>
-      </c>
-      <c r="G31" s="70" t="s">
-        <v>391</v>
+        <v>829</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>1160</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>1172</v>
+        <v>94</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>391</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="41"/>
@@ -10070,48 +10071,48 @@
         <v>18</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>939</v>
+        <v>1072</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="41"/>
       <c r="J33" s="41"/>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>970</v>
+        <v>939</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>1351</v>
+        <v>1180</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="41"/>
@@ -10122,48 +10123,48 @@
         <v>18</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E35" s="68" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F35" s="69" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G35" s="70" t="s">
-        <v>1188</v>
+        <v>970</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>1351</v>
       </c>
       <c r="H35" s="42"/>
       <c r="I35" s="41"/>
       <c r="J35" s="41"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>1195</v>
+        <v>1185</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F36" s="69" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>1188</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="41"/>
@@ -10174,22 +10175,22 @@
         <v>18</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>722</v>
+        <v>1097</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>598</v>
+        <v>1194</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="H37" s="42"/>
       <c r="I37" s="41"/>
@@ -10200,22 +10201,22 @@
         <v>18</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>1643</v>
+        <v>722</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>1206</v>
+        <v>598</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>1607</v>
+        <v>1203</v>
       </c>
       <c r="H38" s="42"/>
       <c r="I38" s="41"/>
@@ -10226,22 +10227,22 @@
         <v>18</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>1634</v>
+        <v>1204</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>1208</v>
+        <v>1643</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>1211</v>
+        <v>1607</v>
       </c>
       <c r="H39" s="42"/>
       <c r="I39" s="41"/>
@@ -10252,26 +10253,24 @@
         <v>18</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>180</v>
+        <v>1634</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>1420</v>
+        <v>1208</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>1327</v>
+        <v>1209</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>1328</v>
+        <v>1210</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>1352</v>
-      </c>
-      <c r="H40" s="42" t="s">
-        <v>1353</v>
-      </c>
+        <v>1211</v>
+      </c>
+      <c r="H40" s="42"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
     </row>
@@ -10280,13 +10279,13 @@
         <v>18</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1354</v>
+        <v>180</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>1327</v>
@@ -10295,10 +10294,10 @@
         <v>1328</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="I41" s="41"/>
       <c r="J41" s="41"/>
@@ -10308,13 +10307,13 @@
         <v>18</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>1327</v>
@@ -10323,61 +10322,63 @@
         <v>1328</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="I42" s="41"/>
       <c r="J42" s="41"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="34" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1212</v>
+        <v>1357</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>773</v>
+        <v>1422</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>1213</v>
+        <v>1327</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>1214</v>
+        <v>1328</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>1215</v>
-      </c>
-      <c r="H43" s="42"/>
+        <v>1358</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>1359</v>
+      </c>
       <c r="I43" s="41"/>
       <c r="J43" s="41"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>659</v>
+        <v>773</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>660</v>
+        <v>1213</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>661</v>
+        <v>1214</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>1427</v>
+        <v>1215</v>
       </c>
       <c r="H44" s="42"/>
       <c r="I44" s="41"/>
@@ -10388,80 +10389,78 @@
         <v>18</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>1223</v>
+        <v>659</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>1219</v>
+        <v>660</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>1477</v>
+        <v>661</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>1361</v>
-      </c>
+        <v>1427</v>
+      </c>
+      <c r="H45" s="42"/>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="34" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>561</v>
+        <v>1222</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>309</v>
+        <v>1223</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>1362</v>
+        <v>1219</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>1363</v>
+        <v>1477</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H46" s="42"/>
+        <v>1224</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>1361</v>
+      </c>
       <c r="I46" s="41"/>
       <c r="J46" s="41"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1367</v>
+        <v>561</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>1368</v>
+        <v>309</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="H47" s="42" t="s">
-        <v>1371</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="H47" s="42"/>
       <c r="I47" s="41"/>
       <c r="J47" s="41"/>
     </row>
@@ -10470,13 +10469,13 @@
         <v>18</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1423</v>
+        <v>1367</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>1424</v>
+        <v>1368</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>1369</v>
@@ -10488,7 +10487,7 @@
         <v>391</v>
       </c>
       <c r="H48" s="42" t="s">
-        <v>1425</v>
+        <v>1371</v>
       </c>
       <c r="I48" s="41"/>
       <c r="J48" s="41"/>
@@ -10498,13 +10497,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1372</v>
+        <v>1423</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>1373</v>
+        <v>1424</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>1369</v>
@@ -10516,7 +10515,7 @@
         <v>391</v>
       </c>
       <c r="H49" s="42" t="s">
-        <v>1374</v>
+        <v>1425</v>
       </c>
       <c r="I49" s="41"/>
       <c r="J49" s="41"/>
@@ -10526,24 +10525,26 @@
         <v>18</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>1231</v>
+        <v>1372</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>1076</v>
+        <v>1373</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>1562</v>
+        <v>1369</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>1563</v>
+        <v>1370</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>1492</v>
-      </c>
-      <c r="H50" s="42"/>
+        <v>391</v>
+      </c>
+      <c r="H50" s="42" t="s">
+        <v>1374</v>
+      </c>
       <c r="I50" s="41"/>
       <c r="J50" s="41"/>
     </row>
@@ -10552,26 +10553,24 @@
         <v>18</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>847</v>
+        <v>1076</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>1236</v>
+        <v>1562</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>120</v>
+        <v>1563</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>1291</v>
-      </c>
-      <c r="H51" s="42" t="s">
-        <v>1375</v>
-      </c>
+        <v>1492</v>
+      </c>
+      <c r="H51" s="42"/>
       <c r="I51" s="41"/>
       <c r="J51" s="41"/>
     </row>
@@ -10580,24 +10579,26 @@
         <v>18</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>1238</v>
+        <v>847</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>1240</v>
+        <v>120</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H52" s="42"/>
+        <v>1291</v>
+      </c>
+      <c r="H52" s="42" t="s">
+        <v>1375</v>
+      </c>
       <c r="I52" s="41"/>
       <c r="J52" s="41"/>
     </row>
@@ -10606,26 +10607,24 @@
         <v>18</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>1383</v>
+        <v>1240</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>1429</v>
-      </c>
-      <c r="H53" s="42" t="s">
-        <v>1458</v>
-      </c>
+        <v>1241</v>
+      </c>
+      <c r="H53" s="42"/>
       <c r="I53" s="41"/>
       <c r="J53" s="41"/>
     </row>
@@ -10634,24 +10633,26 @@
         <v>18</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>778</v>
+        <v>1243</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>1248</v>
+        <v>1383</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H54" s="42"/>
+        <v>1429</v>
+      </c>
+      <c r="H54" s="42" t="s">
+        <v>1458</v>
+      </c>
       <c r="I54" s="41"/>
       <c r="J54" s="41"/>
     </row>
@@ -10660,22 +10661,22 @@
         <v>18</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>1251</v>
+        <v>778</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="H55" s="42"/>
       <c r="I55" s="41"/>
@@ -10686,22 +10687,22 @@
         <v>18</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>515</v>
+        <v>1251</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>1698</v>
+        <v>1254</v>
       </c>
       <c r="H56" s="42"/>
       <c r="I56" s="41"/>
@@ -10712,22 +10713,22 @@
         <v>18</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="E57" s="65" t="s">
-        <v>1687</v>
-      </c>
-      <c r="F57" s="60" t="s">
-        <v>1681</v>
+        <v>515</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>1263</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>1271</v>
+        <v>1698</v>
       </c>
       <c r="H57" s="42"/>
       <c r="I57" s="41"/>
@@ -10738,26 +10739,24 @@
         <v>18</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>1274</v>
+        <v>406</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F58" s="60" t="s">
+        <v>1681</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="H58" s="42" t="s">
-        <v>1290</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="H58" s="42"/>
       <c r="I58" s="41"/>
       <c r="J58" s="41"/>
     </row>
@@ -10766,25 +10765,25 @@
         <v>18</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>697</v>
+        <v>629</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>1318</v>
+        <v>1273</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>1553</v>
+        <v>1274</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="H59" s="42" t="s">
-        <v>1554</v>
+        <v>1290</v>
       </c>
       <c r="I59" s="41"/>
       <c r="J59" s="41"/>
@@ -10794,24 +10793,26 @@
         <v>18</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>1281</v>
+        <v>697</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>1282</v>
+        <v>1318</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>1283</v>
+        <v>1553</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>1284</v>
-      </c>
-      <c r="H60" s="42"/>
+        <v>1279</v>
+      </c>
+      <c r="H60" s="42" t="s">
+        <v>1554</v>
+      </c>
       <c r="I60" s="41"/>
       <c r="J60" s="41"/>
     </row>
@@ -10820,22 +10821,22 @@
         <v>18</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>494</v>
+        <v>1280</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>360</v>
+        <v>1281</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>1379</v>
+        <v>1282</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>1380</v>
+        <v>1283</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>1381</v>
+        <v>1284</v>
       </c>
       <c r="H61" s="42"/>
       <c r="I61" s="41"/>
@@ -10846,22 +10847,22 @@
         <v>18</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>1386</v>
+        <v>494</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>1387</v>
+        <v>157</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>50</v>
+        <v>360</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="H62" s="42"/>
       <c r="I62" s="41"/>
@@ -10872,22 +10873,22 @@
         <v>18</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>157</v>
+        <v>1387</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>1393</v>
+        <v>50</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="H63" s="42"/>
       <c r="I63" s="41"/>
@@ -10898,22 +10899,22 @@
         <v>18</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1399</v>
+        <v>157</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>50</v>
+        <v>1393</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>1428</v>
+        <v>1394</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>391</v>
+        <v>1396</v>
       </c>
       <c r="H64" s="42"/>
       <c r="I64" s="41"/>
@@ -10924,22 +10925,22 @@
         <v>18</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>452</v>
+        <v>1398</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>157</v>
+        <v>1399</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>454</v>
+        <v>1389</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>1437</v>
+        <v>391</v>
       </c>
       <c r="H65" s="42"/>
       <c r="I65" s="41"/>
@@ -10950,26 +10951,24 @@
         <v>18</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>1453</v>
+        <v>452</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>1450</v>
+        <v>250</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>1454</v>
+        <v>1436</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>1452</v>
+        <v>454</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>1555</v>
-      </c>
-      <c r="H66" s="42" t="s">
-        <v>1455</v>
-      </c>
+        <v>1437</v>
+      </c>
+      <c r="H66" s="42"/>
       <c r="I66" s="41"/>
       <c r="J66" s="41"/>
     </row>
@@ -10978,24 +10977,26 @@
         <v>18</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="H67" s="42"/>
+        <v>1555</v>
+      </c>
+      <c r="H67" s="42" t="s">
+        <v>1455</v>
+      </c>
       <c r="I67" s="41"/>
       <c r="J67" s="41"/>
     </row>
@@ -11004,22 +11005,22 @@
         <v>18</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>852</v>
+        <v>1460</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>1467</v>
+        <v>391</v>
       </c>
       <c r="H68" s="42"/>
       <c r="I68" s="41"/>
@@ -11030,22 +11031,22 @@
         <v>18</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>1474</v>
+        <v>852</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="H69" s="42"/>
       <c r="I69" s="41"/>
@@ -11056,19 +11057,19 @@
         <v>18</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>1485</v>
+        <v>1474</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>1486</v>
+        <v>1475</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="G70" s="17" t="s">
         <v>1472</v>
@@ -11082,22 +11083,22 @@
         <v>18</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>1492</v>
+        <v>1472</v>
       </c>
       <c r="H71" s="42"/>
       <c r="I71" s="41"/>
@@ -11108,22 +11109,22 @@
         <v>18</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="H72" s="42"/>
       <c r="I72" s="41"/>
@@ -11134,22 +11135,22 @@
         <v>18</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>214</v>
+        <v>1497</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="H73" s="42"/>
       <c r="I73" s="41"/>
@@ -11160,26 +11161,24 @@
         <v>18</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>1507</v>
+        <v>214</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>1472</v>
-      </c>
-      <c r="H74" s="42" t="s">
-        <v>1510</v>
-      </c>
+        <v>1505</v>
+      </c>
+      <c r="H74" s="42"/>
       <c r="I74" s="41"/>
       <c r="J74" s="41"/>
     </row>
@@ -11188,24 +11187,26 @@
         <v>18</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>434</v>
+        <v>1506</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>16</v>
+        <v>1507</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F75" s="48" t="s">
-        <v>1615</v>
+        <v>1508</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>1509</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>1517</v>
-      </c>
-      <c r="H75" s="42"/>
+        <v>1472</v>
+      </c>
+      <c r="H75" s="42" t="s">
+        <v>1510</v>
+      </c>
       <c r="I75" s="41"/>
       <c r="J75" s="41"/>
     </row>
@@ -11214,26 +11215,24 @@
         <v>18</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>172</v>
+        <v>434</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>1565</v>
+        <v>1516</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>1615</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>1492</v>
-      </c>
-      <c r="H76" s="42" t="s">
-        <v>1601</v>
-      </c>
+        <v>1517</v>
+      </c>
+      <c r="H76" s="42"/>
       <c r="I76" s="41"/>
       <c r="J76" s="41"/>
     </row>
@@ -11242,24 +11241,26 @@
         <v>18</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>1518</v>
+        <v>1564</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>993</v>
+        <v>1565</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>1519</v>
-      </c>
-      <c r="H77" s="42"/>
+        <v>1492</v>
+      </c>
+      <c r="H77" s="42" t="s">
+        <v>1601</v>
+      </c>
       <c r="I77" s="41"/>
       <c r="J77" s="41"/>
     </row>
@@ -11268,22 +11269,22 @@
         <v>18</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>1520</v>
+        <v>178</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>1521</v>
+        <v>157</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>1523</v>
+        <v>993</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>1129</v>
+        <v>1519</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="41"/>
@@ -11294,26 +11295,24 @@
         <v>18</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>1528</v>
-      </c>
-      <c r="H79" s="42" t="s">
-        <v>1529</v>
-      </c>
+        <v>1129</v>
+      </c>
+      <c r="H79" s="42"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
     </row>
@@ -11322,24 +11321,26 @@
         <v>18</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>1389</v>
+        <v>1527</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="H80" s="42"/>
+        <v>1528</v>
+      </c>
+      <c r="H80" s="42" t="s">
+        <v>1529</v>
+      </c>
       <c r="I80" s="41"/>
       <c r="J80" s="41"/>
     </row>
@@ -11348,26 +11349,24 @@
         <v>18</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>225</v>
+        <v>1531</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>1527</v>
+        <v>1389</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>1537</v>
-      </c>
-      <c r="H81" s="42" t="s">
-        <v>1538</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="H81" s="42"/>
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
     </row>
@@ -11376,24 +11375,26 @@
         <v>18</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>498</v>
+        <v>1536</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>361</v>
+        <v>206</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>1539</v>
+        <v>1526</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>872</v>
+        <v>1527</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>1540</v>
-      </c>
-      <c r="H82" s="42"/>
+        <v>1537</v>
+      </c>
+      <c r="H82" s="42" t="s">
+        <v>1538</v>
+      </c>
       <c r="I82" s="41"/>
       <c r="J82" s="41"/>
     </row>
@@ -11402,22 +11403,22 @@
         <v>18</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>1545</v>
+        <v>498</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>1542</v>
+        <v>361</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>1546</v>
+        <v>872</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>1472</v>
+        <v>1540</v>
       </c>
       <c r="H83" s="42"/>
       <c r="I83" s="41"/>
@@ -11428,26 +11429,24 @@
         <v>18</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>1472</v>
       </c>
-      <c r="H84" s="42" t="s">
-        <v>1573</v>
-      </c>
+      <c r="H84" s="42"/>
       <c r="I84" s="41"/>
       <c r="J84" s="41"/>
     </row>
@@ -11456,24 +11455,26 @@
         <v>18</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>1561</v>
+        <v>1550</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="H85" s="42"/>
+        <v>1472</v>
+      </c>
+      <c r="H85" s="42" t="s">
+        <v>1573</v>
+      </c>
       <c r="I85" s="41"/>
       <c r="J85" s="41"/>
     </row>
@@ -11482,26 +11483,24 @@
         <v>18</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>429</v>
+        <v>1558</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>430</v>
+        <v>1561</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>1472</v>
-      </c>
-      <c r="H86" s="42" t="s">
-        <v>1693</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="H86" s="42"/>
       <c r="I86" s="41"/>
       <c r="J86" s="41"/>
     </row>
@@ -11510,24 +11509,26 @@
         <v>18</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>552</v>
+        <v>429</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>1566</v>
+        <v>430</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>1569</v>
-      </c>
-      <c r="H87" s="42"/>
+        <v>1472</v>
+      </c>
+      <c r="H87" s="42" t="s">
+        <v>1693</v>
+      </c>
       <c r="I87" s="41"/>
       <c r="J87" s="41"/>
     </row>
@@ -11536,22 +11537,22 @@
         <v>18</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>1570</v>
+        <v>552</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>53</v>
+        <v>1566</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>1647</v>
+        <v>1568</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H88" s="42"/>
       <c r="I88" s="41"/>
@@ -11562,22 +11563,22 @@
         <v>18</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>166</v>
+        <v>1570</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>1564</v>
+        <v>1571</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>1565</v>
+        <v>1647</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>391</v>
+        <v>1572</v>
       </c>
       <c r="H89" s="42"/>
       <c r="I89" s="41"/>
@@ -11588,13 +11589,13 @@
         <v>18</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>1577</v>
+        <v>167</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>1564</v>
@@ -11603,7 +11604,7 @@
         <v>1565</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>1492</v>
+        <v>391</v>
       </c>
       <c r="H90" s="42"/>
       <c r="I90" s="41"/>
@@ -11614,22 +11615,22 @@
         <v>18</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>1580</v>
+        <v>551</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>465</v>
+        <v>1577</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1581</v>
+        <v>1564</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>1582</v>
+        <v>1565</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>1583</v>
+        <v>1492</v>
       </c>
       <c r="H91" s="42"/>
       <c r="I91" s="41"/>
@@ -11640,26 +11641,24 @@
         <v>18</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>1585</v>
+        <v>465</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>1608</v>
-      </c>
-      <c r="H92" s="42" t="s">
-        <v>1609</v>
-      </c>
+        <v>1583</v>
+      </c>
+      <c r="H92" s="42"/>
       <c r="I92" s="41"/>
       <c r="J92" s="41"/>
     </row>
@@ -11668,24 +11667,26 @@
         <v>18</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>1597</v>
+        <v>1584</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>1598</v>
+        <v>1586</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>1648</v>
+        <v>1587</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>1689</v>
-      </c>
-      <c r="H93" s="42"/>
+        <v>1608</v>
+      </c>
+      <c r="H93" s="42" t="s">
+        <v>1609</v>
+      </c>
       <c r="I93" s="41"/>
       <c r="J93" s="41"/>
     </row>
@@ -11694,22 +11695,22 @@
         <v>18</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>213</v>
+        <v>1594</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>1600</v>
+        <v>1648</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>1603</v>
+        <v>1689</v>
       </c>
       <c r="H94" s="42"/>
       <c r="I94" s="41"/>
@@ -11720,22 +11721,22 @@
         <v>18</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>620</v>
+        <v>1599</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>620</v>
+        <v>213</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>1611</v>
+        <v>1600</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>1381</v>
+        <v>1603</v>
       </c>
       <c r="H95" s="42"/>
       <c r="I95" s="41"/>
@@ -11746,26 +11747,24 @@
         <v>18</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>441</v>
+        <v>620</v>
       </c>
       <c r="C96" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>442</v>
+        <v>620</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H96" s="42" t="s">
-        <v>1614</v>
-      </c>
+        <v>1381</v>
+      </c>
+      <c r="H96" s="42"/>
       <c r="I96" s="41"/>
       <c r="J96" s="41"/>
     </row>
@@ -11774,24 +11773,26 @@
         <v>18</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>1616</v>
+        <v>441</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>265</v>
+        <v>442</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>1300</v>
+        <v>1612</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>1618</v>
-      </c>
-      <c r="H97" s="42"/>
+        <v>1364</v>
+      </c>
+      <c r="H97" s="42" t="s">
+        <v>1614</v>
+      </c>
       <c r="I97" s="41"/>
       <c r="J97" s="41"/>
     </row>
@@ -11800,22 +11801,22 @@
         <v>18</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>1620</v>
+        <v>265</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>1621</v>
+        <v>1300</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>1492</v>
+        <v>1618</v>
       </c>
       <c r="H98" s="42"/>
       <c r="I98" s="41"/>
@@ -11826,22 +11827,22 @@
         <v>18</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>88</v>
+        <v>1620</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>1364</v>
+        <v>1492</v>
       </c>
       <c r="H99" s="42"/>
       <c r="I99" s="41"/>
@@ -11852,19 +11853,19 @@
         <v>18</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>1055</v>
+        <v>88</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>1364</v>
@@ -11878,22 +11879,22 @@
         <v>18</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>1225</v>
+        <v>1631</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>1226</v>
+        <v>1055</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>1686</v>
+        <v>1633</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>1636</v>
+        <v>1364</v>
       </c>
       <c r="H101" s="42"/>
       <c r="I101" s="41"/>
@@ -11904,22 +11905,22 @@
         <v>18</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>1637</v>
+        <v>1225</v>
       </c>
       <c r="C102" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>1640</v>
+        <v>1226</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>1639</v>
+        <v>1686</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>1492</v>
+        <v>1636</v>
       </c>
       <c r="H102" s="42"/>
       <c r="I102" s="41"/>
@@ -11930,26 +11931,24 @@
         <v>18</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>1649</v>
+        <v>1637</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>1651</v>
+        <v>1638</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="H103" s="42" t="s">
-        <v>1653</v>
-      </c>
+        <v>1492</v>
+      </c>
+      <c r="H103" s="42"/>
       <c r="I103" s="41"/>
       <c r="J103" s="41"/>
     </row>
@@ -12250,7 +12249,7 @@
       <c r="J114" s="45"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="76" t="s">
+      <c r="A115" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B115" s="55" t="s">
@@ -12278,7 +12277,7 @@
   </sheetData>
   <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A106" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A104:A106 A2:A103" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12286,9 +12285,9 @@
     <hyperlink ref="E107" r:id="rId1" display="mailto:Mellowbryan@gmail.com" xr:uid="{CCD2B31E-FAE2-4133-8691-3AACF84120DA}"/>
     <hyperlink ref="E108" r:id="rId2" xr:uid="{66D7E23E-3471-4BB7-BE42-74D7CBC14C17}"/>
     <hyperlink ref="E109" r:id="rId3" display="mailto:bill@edit-x.com" xr:uid="{A8D541C9-FA59-48AA-9E19-CD2F82003119}"/>
-    <hyperlink ref="E57" r:id="rId4" display="mailto:raymond.vasquez1@gmail.com" xr:uid="{8D6CB666-B871-474E-9988-B3F6EE7977EC}"/>
+    <hyperlink ref="E58" r:id="rId4" display="mailto:raymond.vasquez1@gmail.com" xr:uid="{8D6CB666-B871-474E-9988-B3F6EE7977EC}"/>
     <hyperlink ref="E113" r:id="rId5" display="mailto:hallison@hornandcantle.com" xr:uid="{0CCA7460-4FDA-42E6-8B70-77E178B8CF20}"/>
-    <hyperlink ref="E25" r:id="rId6" display="mailto:Annettewaller29@gmail.com" xr:uid="{9A6B3AD2-E096-4E36-9012-669512C9808A}"/>
+    <hyperlink ref="E26" r:id="rId6" display="mailto:Annettewaller29@gmail.com" xr:uid="{9A6B3AD2-E096-4E36-9012-669512C9808A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5492AA-9CBF-4AEC-8721-D440E1163367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CB6CFE-37A6-4845-A29E-16D66CB4BA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="1715">
   <si>
     <t>Active</t>
   </si>
@@ -5174,6 +5174,18 @@
   </si>
   <si>
     <t>2Castle431!!</t>
+  </si>
+  <si>
+    <t>SokaiSushi_Sysco</t>
+  </si>
+  <si>
+    <t>Sokai Sushi Bar</t>
+  </si>
+  <si>
+    <t>Fernandez.joseangel92@gmail.com</t>
+  </si>
+  <si>
+    <t>17738472Jf</t>
   </si>
 </sst>
 </file>
@@ -9181,10 +9193,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12249,30 +12261,56 @@
       <c r="J114" s="45"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115" s="55" t="s">
+      <c r="A115" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="66" t="s">
         <v>456</v>
       </c>
-      <c r="C115" s="55" t="s">
+      <c r="C115" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="D115" s="55" t="s">
+      <c r="D115" s="66" t="s">
         <v>1708</v>
       </c>
-      <c r="E115" s="55" t="s">
+      <c r="E115" s="66" t="s">
         <v>1709</v>
       </c>
-      <c r="F115" s="54" t="s">
+      <c r="F115" s="67" t="s">
         <v>1710</v>
       </c>
-      <c r="G115" s="55" t="s">
+      <c r="G115" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="H115" s="57"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="45"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="61"/>
+      <c r="J115" s="61"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" s="55" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C116" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D116" s="55" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E116" s="75" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F116" s="75" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G116" s="55" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H116" s="57"/>
+      <c r="I116" s="45"/>
+      <c r="J116" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CB6CFE-37A6-4845-A29E-16D66CB4BA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6452148C-592E-42CD-B977-FA07CDF114C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="1715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="1716">
   <si>
     <t>Active</t>
   </si>
@@ -4966,12 +4966,6 @@
     <t>Joel's Catering &amp; Special Events</t>
   </si>
   <si>
-    <t>spiro.argyros@topofthelinemanagement.com</t>
-  </si>
-  <si>
-    <t>Syscoboca1234</t>
-  </si>
-  <si>
     <t>Manhattan Deli</t>
   </si>
   <si>
@@ -5186,6 +5180,15 @@
   </si>
   <si>
     <t>17738472Jf</t>
+  </si>
+  <si>
+    <t>samuel@diningedge.com</t>
+  </si>
+  <si>
+    <t>Dininge2015</t>
+  </si>
+  <si>
+    <t>043-644377</t>
   </si>
 </sst>
 </file>
@@ -9195,8 +9198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9204,7 +9207,7 @@
     <col min="2" max="2" width="28.88671875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="53" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="22" style="6" customWidth="1" collapsed="1"/>
@@ -9581,25 +9584,25 @@
         <v>18</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>1650</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>1651</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>1652</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>391</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
@@ -9686,7 +9689,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>18</v>
       </c>
@@ -9712,7 +9715,7 @@
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>18</v>
       </c>
@@ -9725,13 +9728,13 @@
       <c r="D19" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>1328</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="E19" s="68" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G19" s="70" t="s">
         <v>1329</v>
       </c>
       <c r="H19" s="42" t="s">
@@ -9910,19 +9913,19 @@
         <v>169</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="F26" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="G26" s="70" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
         <v>18</v>
       </c>
@@ -9948,7 +9951,7 @@
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
         <v>18</v>
       </c>
@@ -9961,13 +9964,13 @@
       <c r="D28" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="E28" s="68" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G28" s="70" t="s">
         <v>1578</v>
       </c>
       <c r="H28" s="42"/>
@@ -10066,10 +10069,10 @@
         <v>94</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F32" s="70" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="G32" s="70" t="s">
         <v>391</v>
@@ -10173,7 +10176,7 @@
         <v>1186</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="G36" s="70" t="s">
         <v>1188</v>
@@ -10245,7 +10248,7 @@
         <v>157</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>1205</v>
@@ -10260,7 +10263,7 @@
       <c r="I39" s="41"/>
       <c r="J39" s="41"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
         <v>18</v>
       </c>
@@ -10286,7 +10289,7 @@
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>18</v>
       </c>
@@ -10299,14 +10302,14 @@
       <c r="D41" s="17" t="s">
         <v>1420</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>1328</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>1352</v>
+      <c r="E41" s="68" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G41" s="70" t="s">
+        <v>1329</v>
       </c>
       <c r="H41" s="42" t="s">
         <v>1353</v>
@@ -10314,7 +10317,7 @@
       <c r="I41" s="41"/>
       <c r="J41" s="41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>18</v>
       </c>
@@ -10327,14 +10330,14 @@
       <c r="D42" s="17" t="s">
         <v>1421</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>1328</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>1355</v>
+      <c r="E42" s="68" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G42" s="70" t="s">
+        <v>1329</v>
       </c>
       <c r="H42" s="42" t="s">
         <v>1356</v>
@@ -10342,7 +10345,7 @@
       <c r="I42" s="41"/>
       <c r="J42" s="41"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
         <v>18</v>
       </c>
@@ -10355,14 +10358,14 @@
       <c r="D43" s="17" t="s">
         <v>1422</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>1328</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>1358</v>
+      <c r="E43" s="68" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F43" s="70" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>1329</v>
       </c>
       <c r="H43" s="42" t="s">
         <v>1359</v>
@@ -10740,7 +10743,7 @@
         <v>1263</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="H57" s="42"/>
       <c r="I57" s="41"/>
@@ -10760,10 +10763,10 @@
         <v>406</v>
       </c>
       <c r="E58" s="65" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F58" s="60" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>1271</v>
@@ -11539,7 +11542,7 @@
         <v>1472</v>
       </c>
       <c r="H87" s="42" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="I87" s="41"/>
       <c r="J87" s="41"/>
@@ -11587,7 +11590,7 @@
         <v>1571</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="G89" s="17" t="s">
         <v>1572</v>
@@ -11719,10 +11722,10 @@
         <v>1598</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="H94" s="42"/>
       <c r="I94" s="41"/>
@@ -11929,7 +11932,7 @@
         <v>1635</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="G102" s="17" t="s">
         <v>1636</v>
@@ -11969,13 +11972,13 @@
         <v>18</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="C104" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="E104" s="17" t="s">
         <v>1508</v>
@@ -11984,10 +11987,10 @@
         <v>1509</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H104" s="42" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="I104" s="41"/>
       <c r="J104" s="41"/>
@@ -11997,13 +12000,13 @@
         <v>18</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="C105" s="22" t="s">
         <v>157</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="E105" s="22" t="s">
         <v>1508</v>
@@ -12012,10 +12015,10 @@
         <v>1509</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H105" s="49" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I105" s="50"/>
       <c r="J105" s="50"/>
@@ -12025,22 +12028,22 @@
         <v>18</v>
       </c>
       <c r="B106" s="52" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C106" s="52" t="s">
         <v>157</v>
       </c>
       <c r="D106" s="52" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="E106" s="52" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="F106" s="52" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="G106" s="52" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H106" s="58"/>
       <c r="I106" s="59"/>
@@ -12051,19 +12054,19 @@
         <v>18</v>
       </c>
       <c r="B107" s="51" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C107" s="52" t="s">
         <v>157</v>
       </c>
       <c r="D107" s="51" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E107" s="53" t="s">
         <v>1665</v>
       </c>
-      <c r="E107" s="53" t="s">
-        <v>1667</v>
-      </c>
       <c r="F107" s="54" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="G107" s="55" t="s">
         <v>391</v>
@@ -12077,22 +12080,22 @@
         <v>18</v>
       </c>
       <c r="B108" s="51" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C108" s="52" t="s">
         <v>157</v>
       </c>
       <c r="D108" s="51" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="E108" s="53" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F108" s="54" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G108" s="55" t="s">
         <v>1669</v>
-      </c>
-      <c r="F108" s="54" t="s">
-        <v>1670</v>
-      </c>
-      <c r="G108" s="55" t="s">
-        <v>1671</v>
       </c>
       <c r="H108" s="57"/>
       <c r="I108" s="45"/>
@@ -12103,19 +12106,19 @@
         <v>18</v>
       </c>
       <c r="B109" s="51" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C109" s="52" t="s">
         <v>157</v>
       </c>
       <c r="D109" s="51" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="E109" s="56" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F109" s="51" t="s">
         <v>1675</v>
-      </c>
-      <c r="F109" s="51" t="s">
-        <v>1677</v>
       </c>
       <c r="G109" s="51" t="s">
         <v>391</v>
@@ -12129,13 +12132,13 @@
         <v>18</v>
       </c>
       <c r="B110" s="62" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C110" s="63" t="s">
         <v>157</v>
       </c>
       <c r="D110" s="62" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="E110" s="61" t="s">
         <v>1508</v>
@@ -12144,10 +12147,10 @@
         <v>1509</v>
       </c>
       <c r="G110" s="61" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H110" s="64" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="I110" s="61"/>
       <c r="J110" s="61"/>
@@ -12157,25 +12160,25 @@
         <v>18</v>
       </c>
       <c r="B111" s="62" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="C111" s="66" t="s">
         <v>157</v>
       </c>
       <c r="D111" s="66" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E111" s="67" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F111" s="67" t="s">
         <v>1683</v>
-      </c>
-      <c r="E111" s="67" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F111" s="67" t="s">
-        <v>1685</v>
       </c>
       <c r="G111" s="66" t="s">
         <v>391</v>
       </c>
       <c r="H111" s="57" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="I111" s="61"/>
       <c r="J111" s="61"/>
@@ -12185,13 +12188,13 @@
         <v>18</v>
       </c>
       <c r="B112" s="66" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C112" s="66" t="s">
         <v>157</v>
       </c>
       <c r="D112" s="66" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="E112" s="66" t="s">
         <v>1403</v>
@@ -12200,10 +12203,10 @@
         <v>1404</v>
       </c>
       <c r="G112" s="66" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="H112" s="61" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="I112" s="61"/>
       <c r="J112" s="61"/>
@@ -12213,24 +12216,26 @@
         <v>18</v>
       </c>
       <c r="B113" s="66" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="C113" s="66" t="s">
         <v>157</v>
       </c>
       <c r="D113" s="66" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E113" s="73" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F113" s="74" t="s">
         <v>1695</v>
-      </c>
-      <c r="E113" s="73" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F113" s="74" t="s">
-        <v>1697</v>
       </c>
       <c r="G113" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="H113" s="64"/>
+      <c r="H113" s="64" t="s">
+        <v>1715</v>
+      </c>
       <c r="I113" s="61"/>
       <c r="J113" s="61"/>
     </row>
@@ -12239,19 +12244,19 @@
         <v>18</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C114" s="55" t="s">
         <v>157</v>
       </c>
       <c r="D114" s="55" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E114" s="75" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F114" s="75" t="s">
         <v>1705</v>
-      </c>
-      <c r="E114" s="75" t="s">
-        <v>1706</v>
-      </c>
-      <c r="F114" s="75" t="s">
-        <v>1707</v>
       </c>
       <c r="G114" s="55" t="s">
         <v>391</v>
@@ -12271,13 +12276,13 @@
         <v>157</v>
       </c>
       <c r="D115" s="66" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E115" s="66" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F115" s="67" t="s">
         <v>1708</v>
-      </c>
-      <c r="E115" s="66" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F115" s="67" t="s">
-        <v>1710</v>
       </c>
       <c r="G115" s="66" t="s">
         <v>391</v>
@@ -12291,19 +12296,19 @@
         <v>18</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C116" s="55" t="s">
         <v>157</v>
       </c>
       <c r="D116" s="55" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E116" s="75" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F116" s="75" t="s">
         <v>1712</v>
-      </c>
-      <c r="E116" s="75" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F116" s="75" t="s">
-        <v>1714</v>
       </c>
       <c r="G116" s="55" t="s">
         <v>1572</v>
@@ -12937,7 +12942,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="C26" s="46" t="s">
         <v>1296</v>
@@ -12946,10 +12951,10 @@
         <v>529</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6452148C-592E-42CD-B977-FA07CDF114C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0576ED3-1F1B-450A-8FA7-2DDD85B3C8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9198,8 +9198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10312,7 +10312,7 @@
         <v>1329</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>1353</v>
+        <v>1330</v>
       </c>
       <c r="I41" s="41"/>
       <c r="J41" s="41"/>
@@ -10340,7 +10340,7 @@
         <v>1329</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>1356</v>
+        <v>1330</v>
       </c>
       <c r="I42" s="41"/>
       <c r="J42" s="41"/>
@@ -10368,7 +10368,7 @@
         <v>1329</v>
       </c>
       <c r="H43" s="42" t="s">
-        <v>1359</v>
+        <v>1330</v>
       </c>
       <c r="I43" s="41"/>
       <c r="J43" s="41"/>
@@ -12320,7 +12320,7 @@
   </sheetData>
   <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A104:A106 A2:A103" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A106" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0576ED3-1F1B-450A-8FA7-2DDD85B3C8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDD1B0E-0485-4140-B58F-E0CB0AA4B7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9198,8 +9198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10300,7 +10300,7 @@
         <v>157</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>1420</v>
+        <v>197</v>
       </c>
       <c r="E41" s="68" t="s">
         <v>1713</v>
@@ -10319,7 +10319,7 @@
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>1354</v>
@@ -10347,7 +10347,7 @@
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>1357</v>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDD1B0E-0485-4140-B58F-E0CB0AA4B7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1709036-2CF4-4A37-8026-441ED4001681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="1716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="1717">
   <si>
     <t>Active</t>
   </si>
@@ -5189,6 +5189,9 @@
   </si>
   <si>
     <t>043-644377</t>
+  </si>
+  <si>
+    <t>005-984041</t>
   </si>
 </sst>
 </file>
@@ -9198,8 +9201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="D107" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12206,7 +12209,7 @@
         <v>1690</v>
       </c>
       <c r="H112" s="61" t="s">
-        <v>1686</v>
+        <v>1716</v>
       </c>
       <c r="I112" s="61"/>
       <c r="J112" s="61"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1709036-2CF4-4A37-8026-441ED4001681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569927D2-B7E8-4ADE-A933-AEDD36C9832B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="1717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="1717">
   <si>
     <t>Active</t>
   </si>
@@ -5323,7 +5323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -5529,6 +5529,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5537,7 +5550,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5740,6 +5753,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -9199,10 +9216,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D107" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12294,7 +12311,7 @@
       <c r="I115" s="61"/>
       <c r="J115" s="61"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="45" t="s">
         <v>18</v>
       </c>
@@ -12319,6 +12336,29 @@
       <c r="H116" s="57"/>
       <c r="I116" s="45"/>
       <c r="J116" s="45"/>
+    </row>
+    <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="76" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C117" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D117" s="70" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E117" s="70" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F117" s="70" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G117" s="70" t="s">
+        <v>1636</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J106" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569927D2-B7E8-4ADE-A933-AEDD36C9832B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C620CBAC-41AF-400F-BBBD-28AB07909D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="1717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="1721">
   <si>
     <t>Active</t>
   </si>
@@ -5192,6 +5192,18 @@
   </si>
   <si>
     <t>005-984041</t>
+  </si>
+  <si>
+    <t>TheOaksClub_Sysco</t>
+  </si>
+  <si>
+    <t>The Oaks Club</t>
+  </si>
+  <si>
+    <t>purchasing@theoaksclub.com</t>
+  </si>
+  <si>
+    <t>Tater2018!</t>
   </si>
 </sst>
 </file>
@@ -5323,7 +5335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -5530,7 +5542,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -5538,7 +5567,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5754,9 +5783,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -9219,7 +9250,7 @@
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12338,26 +12369,26 @@
       <c r="J116" s="45"/>
     </row>
     <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="B117" s="76" t="s">
-        <v>1225</v>
+      <c r="A117" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="68" t="s">
+        <v>1717</v>
       </c>
       <c r="C117" s="70" t="s">
         <v>157</v>
       </c>
       <c r="D117" s="70" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E117" s="70" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F117" s="70" t="s">
-        <v>1684</v>
+        <v>1718</v>
+      </c>
+      <c r="E117" s="76" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F117" s="77" t="s">
+        <v>1720</v>
       </c>
       <c r="G117" s="70" t="s">
-        <v>1636</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Resources/ExportEngineInput.xlsx
+++ b/src/main/java/Resources/ExportEngineInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\SyscoShop\SyscoShop\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C620CBAC-41AF-400F-BBBD-28AB07909D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183F66F5-AE59-45B3-898F-ED19310532D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="1722">
   <si>
     <t>Active</t>
   </si>
@@ -4729,12 +4729,6 @@
     <t>Royal Wood Golf and CC</t>
   </si>
   <si>
-    <t>mariabr@poloclub.net</t>
-  </si>
-  <si>
-    <t>Costarica2021</t>
-  </si>
-  <si>
     <t>Jaci@aprestaurantgroup.com</t>
   </si>
   <si>
@@ -5204,13 +5198,22 @@
   </si>
   <si>
     <t>Tater2018!</t>
+  </si>
+  <si>
+    <t>StreetTacoSauce11@</t>
+  </si>
+  <si>
+    <t>sarahs@poloclub.net</t>
+  </si>
+  <si>
+    <t>roosterfish dining edge 4.22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5313,6 +5316,14 @@
       <color rgb="FFFF6600"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5579,7 +5590,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5786,6 +5797,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9249,21 +9263,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="53" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22" style="6" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -9635,25 +9650,25 @@
         <v>18</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>1648</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>1649</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>1650</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>391</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
@@ -9780,10 +9795,10 @@
         <v>109</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="G19" s="70" t="s">
         <v>1329</v>
@@ -9837,10 +9852,10 @@
         <v>1122</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="41"/>
@@ -9964,13 +9979,13 @@
         <v>169</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="F26" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="G26" s="70" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="41"/>
@@ -9996,7 +10011,7 @@
         <v>1426</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="41"/>
@@ -10022,7 +10037,7 @@
         <v>1557</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="41"/>
@@ -10048,7 +10063,7 @@
         <v>1149</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="H29" s="42"/>
       <c r="I29" s="41"/>
@@ -10074,7 +10089,7 @@
         <v>1557</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="41"/>
@@ -10120,10 +10135,10 @@
         <v>94</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="F32" s="70" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="G32" s="70" t="s">
         <v>391</v>
@@ -10227,7 +10242,7 @@
         <v>1186</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="G36" s="70" t="s">
         <v>1188</v>
@@ -10299,7 +10314,7 @@
         <v>157</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>1205</v>
@@ -10308,7 +10323,7 @@
         <v>1206</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="H39" s="42"/>
       <c r="I39" s="41"/>
@@ -10319,7 +10334,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>157</v>
@@ -10354,10 +10369,10 @@
         <v>197</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="G41" s="70" t="s">
         <v>1329</v>
@@ -10382,10 +10397,10 @@
         <v>1421</v>
       </c>
       <c r="E42" s="68" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="G42" s="70" t="s">
         <v>1329</v>
@@ -10410,10 +10425,10 @@
         <v>1422</v>
       </c>
       <c r="E43" s="68" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="G43" s="70" t="s">
         <v>1329</v>
@@ -10586,7 +10601,7 @@
       <c r="I49" s="41"/>
       <c r="J49" s="41"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
         <v>18</v>
       </c>
@@ -10614,7 +10629,7 @@
       <c r="I50" s="41"/>
       <c r="J50" s="41"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
         <v>18</v>
       </c>
@@ -10627,11 +10642,11 @@
       <c r="D51" s="17" t="s">
         <v>1076</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>1563</v>
+      <c r="E51" s="78" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F51" s="72" t="s">
+        <v>1719</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>1492</v>
@@ -10660,7 +10675,7 @@
         <v>120</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>1291</v>
+        <v>1721</v>
       </c>
       <c r="H52" s="42" t="s">
         <v>1375</v>
@@ -10794,7 +10809,7 @@
         <v>1263</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="H57" s="42"/>
       <c r="I57" s="41"/>
@@ -10814,10 +10829,10 @@
         <v>406</v>
       </c>
       <c r="E58" s="65" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F58" s="60" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>1271</v>
@@ -11293,7 +11308,7 @@
         <v>1516</v>
       </c>
       <c r="F76" s="48" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>1517</v>
@@ -11316,16 +11331,16 @@
         <v>132</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="G77" s="17" t="s">
         <v>1492</v>
       </c>
       <c r="H77" s="42" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="I77" s="41"/>
       <c r="J77" s="41"/>
@@ -11539,7 +11554,7 @@
         <v>1472</v>
       </c>
       <c r="H85" s="42" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="I85" s="41"/>
       <c r="J85" s="41"/>
@@ -11584,16 +11599,16 @@
         <v>430</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="G87" s="17" t="s">
         <v>1472</v>
       </c>
       <c r="H87" s="42" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="I87" s="41"/>
       <c r="J87" s="41"/>
@@ -11609,16 +11624,16 @@
         <v>157</v>
       </c>
       <c r="D88" s="17" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F88" s="17" t="s">
         <v>1566</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="G88" s="17" t="s">
         <v>1567</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>1568</v>
-      </c>
-      <c r="G88" s="17" t="s">
-        <v>1569</v>
       </c>
       <c r="H88" s="42"/>
       <c r="I88" s="41"/>
@@ -11629,7 +11644,7 @@
         <v>18</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>157</v>
@@ -11638,13 +11653,13 @@
         <v>53</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="H89" s="42"/>
       <c r="I89" s="41"/>
@@ -11664,10 +11679,10 @@
         <v>167</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="G90" s="17" t="s">
         <v>391</v>
@@ -11687,13 +11702,13 @@
         <v>157</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="G91" s="17" t="s">
         <v>1492</v>
@@ -11707,7 +11722,7 @@
         <v>18</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>157</v>
@@ -11716,13 +11731,13 @@
         <v>465</v>
       </c>
       <c r="E92" s="17" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G92" s="17" t="s">
         <v>1581</v>
-      </c>
-      <c r="F92" s="17" t="s">
-        <v>1582</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>1583</v>
       </c>
       <c r="H92" s="42"/>
       <c r="I92" s="41"/>
@@ -11733,25 +11748,25 @@
         <v>18</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D93" s="17" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F93" s="17" t="s">
         <v>1585</v>
       </c>
-      <c r="E93" s="17" t="s">
-        <v>1586</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>1587</v>
-      </c>
       <c r="G93" s="17" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="H93" s="42" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="I93" s="41"/>
       <c r="J93" s="41"/>
@@ -11761,22 +11776,22 @@
         <v>18</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="H94" s="42"/>
       <c r="I94" s="41"/>
@@ -11787,7 +11802,7 @@
         <v>18</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>157</v>
@@ -11796,13 +11811,13 @@
         <v>213</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="H95" s="42"/>
       <c r="I95" s="41"/>
@@ -11822,10 +11837,10 @@
         <v>620</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="G96" s="17" t="s">
         <v>1381</v>
@@ -11848,16 +11863,16 @@
         <v>442</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="G97" s="17" t="s">
         <v>1364</v>
       </c>
       <c r="H97" s="42" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="I97" s="41"/>
       <c r="J97" s="41"/>
@@ -11867,7 +11882,7 @@
         <v>18</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>157</v>
@@ -11879,10 +11894,10 @@
         <v>1300</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="H98" s="42"/>
       <c r="I98" s="41"/>
@@ -11893,19 +11908,19 @@
         <v>18</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D99" s="17" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F99" s="17" t="s">
         <v>1620</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F99" s="17" t="s">
-        <v>1622</v>
       </c>
       <c r="G99" s="17" t="s">
         <v>1492</v>
@@ -11919,7 +11934,7 @@
         <v>18</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>157</v>
@@ -11928,10 +11943,10 @@
         <v>88</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>1364</v>
@@ -11945,7 +11960,7 @@
         <v>18</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>157</v>
@@ -11954,10 +11969,10 @@
         <v>1055</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="G101" s="17" t="s">
         <v>1364</v>
@@ -11980,13 +11995,13 @@
         <v>1226</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="H102" s="42"/>
       <c r="I102" s="41"/>
@@ -11997,19 +12012,19 @@
         <v>18</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="G103" s="17" t="s">
         <v>1492</v>
@@ -12023,13 +12038,13 @@
         <v>18</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C104" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E104" s="17" t="s">
         <v>1508</v>
@@ -12038,10 +12053,10 @@
         <v>1509</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H104" s="42" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="I104" s="41"/>
       <c r="J104" s="41"/>
@@ -12051,13 +12066,13 @@
         <v>18</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="C105" s="22" t="s">
         <v>157</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="E105" s="22" t="s">
         <v>1508</v>
@@ -12066,10 +12081,10 @@
         <v>1509</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H105" s="49" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="I105" s="50"/>
       <c r="J105" s="50"/>
@@ -12079,22 +12094,22 @@
         <v>18</v>
       </c>
       <c r="B106" s="52" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C106" s="52" t="s">
         <v>157</v>
       </c>
       <c r="D106" s="52" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="E106" s="52" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="F106" s="52" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="G106" s="52" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H106" s="58"/>
       <c r="I106" s="59"/>
@@ -12105,19 +12120,19 @@
         <v>18</v>
       </c>
       <c r="B107" s="51" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C107" s="52" t="s">
         <v>157</v>
       </c>
       <c r="D107" s="51" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E107" s="53" t="s">
         <v>1663</v>
       </c>
-      <c r="E107" s="53" t="s">
-        <v>1665</v>
-      </c>
       <c r="F107" s="54" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="G107" s="55" t="s">
         <v>391</v>
@@ -12131,22 +12146,22 @@
         <v>18</v>
       </c>
       <c r="B108" s="51" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="C108" s="52" t="s">
         <v>157</v>
       </c>
       <c r="D108" s="51" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E108" s="53" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F108" s="54" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G108" s="55" t="s">
         <v>1667</v>
-      </c>
-      <c r="F108" s="54" t="s">
-        <v>1668</v>
-      </c>
-      <c r="G108" s="55" t="s">
-        <v>1669</v>
       </c>
       <c r="H108" s="57"/>
       <c r="I108" s="45"/>
@@ -12157,19 +12172,19 @@
         <v>18</v>
       </c>
       <c r="B109" s="51" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="C109" s="52" t="s">
         <v>157</v>
       </c>
       <c r="D109" s="51" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="E109" s="56" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F109" s="51" t="s">
         <v>1673</v>
-      </c>
-      <c r="F109" s="51" t="s">
-        <v>1675</v>
       </c>
       <c r="G109" s="51" t="s">
         <v>391</v>
@@ -12183,13 +12198,13 @@
         <v>18</v>
       </c>
       <c r="B110" s="62" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="C110" s="63" t="s">
         <v>157</v>
       </c>
       <c r="D110" s="62" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="E110" s="61" t="s">
         <v>1508</v>
@@ -12198,10 +12213,10 @@
         <v>1509</v>
       </c>
       <c r="G110" s="61" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H110" s="64" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="I110" s="61"/>
       <c r="J110" s="61"/>
@@ -12211,25 +12226,25 @@
         <v>18</v>
       </c>
       <c r="B111" s="62" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C111" s="66" t="s">
         <v>157</v>
       </c>
       <c r="D111" s="66" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E111" s="67" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F111" s="67" t="s">
         <v>1681</v>
-      </c>
-      <c r="E111" s="67" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F111" s="67" t="s">
-        <v>1683</v>
       </c>
       <c r="G111" s="66" t="s">
         <v>391</v>
       </c>
       <c r="H111" s="57" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="I111" s="61"/>
       <c r="J111" s="61"/>
@@ -12239,13 +12254,13 @@
         <v>18</v>
       </c>
       <c r="B112" s="66" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C112" s="66" t="s">
         <v>157</v>
       </c>
       <c r="D112" s="66" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="E112" s="66" t="s">
         <v>1403</v>
@@ -12254,10 +12269,10 @@
         <v>1404</v>
       </c>
       <c r="G112" s="66" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="H112" s="61" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="I112" s="61"/>
       <c r="J112" s="61"/>
@@ -12267,25 +12282,25 @@
         <v>18</v>
       </c>
       <c r="B113" s="66" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="C113" s="66" t="s">
         <v>157</v>
       </c>
       <c r="D113" s="66" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E113" s="73" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F113" s="74" t="s">
         <v>1693</v>
-      </c>
-      <c r="E113" s="73" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F113" s="74" t="s">
-        <v>1695</v>
       </c>
       <c r="G113" s="66" t="s">
         <v>391</v>
       </c>
       <c r="H113" s="64" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="I113" s="61"/>
       <c r="J113" s="61"/>
@@ -12295,19 +12310,19 @@
         <v>18</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="C114" s="55" t="s">
         <v>157</v>
       </c>
       <c r="D114" s="55" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E114" s="75" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F114" s="75" t="s">
         <v>1703</v>
-      </c>
-      <c r="E114" s="75" t="s">
-        <v>1704</v>
-      </c>
-      <c r="F114" s="75" t="s">
-        <v>1705</v>
       </c>
       <c r="G114" s="55" t="s">
         <v>391</v>
@@ -12327,13 +12342,13 @@
         <v>157</v>
       </c>
       <c r="D115" s="66" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E115" s="66" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F115" s="67" t="s">
         <v>1706</v>
-      </c>
-      <c r="E115" s="66" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F115" s="67" t="s">
-        <v>1708</v>
       </c>
       <c r="G115" s="66" t="s">
         <v>391</v>
@@ -12347,22 +12362,22 @@
         <v>18</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C116" s="55" t="s">
         <v>157</v>
       </c>
       <c r="D116" s="55" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E116" s="75" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F116" s="75" t="s">
         <v>1710</v>
       </c>
-      <c r="E116" s="75" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F116" s="75" t="s">
-        <v>1712</v>
-      </c>
       <c r="G116" s="55" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="H116" s="57"/>
       <c r="I116" s="45"/>
@@ -12373,19 +12388,19 @@
         <v>18</v>
       </c>
       <c r="B117" s="68" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C117" s="70" t="s">
         <v>157</v>
       </c>
       <c r="D117" s="70" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E117" s="76" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F117" s="77" t="s">
         <v>1718</v>
-      </c>
-      <c r="E117" s="76" t="s">
-        <v>1719</v>
-      </c>
-      <c r="F117" s="77" t="s">
-        <v>1720</v>
       </c>
       <c r="G117" s="70" t="s">
         <v>391</v>
@@ -12818,10 +12833,10 @@
         <v>1515</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
@@ -12878,7 +12893,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>1296</v>
@@ -12887,10 +12902,10 @@
         <v>213</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
@@ -12901,19 +12916,19 @@
         <v>66</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>1296</v>
       </c>
       <c r="D21" s="46" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>1590</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>1591</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>1592</v>
       </c>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
@@ -12924,19 +12939,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>1296</v>
       </c>
       <c r="D22" s="46" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>1594</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>1595</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>1596</v>
       </c>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
@@ -12947,19 +12962,19 @@
         <v>66</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>1296</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
@@ -12970,7 +12985,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="C24" s="46" t="s">
         <v>1296</v>
@@ -12979,10 +12994,10 @@
         <v>88</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
@@ -12993,7 +13008,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="C25" s="46" t="s">
         <v>1296</v>
@@ -13002,10 +13017,10 @@
         <v>966</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
@@ -13016,7 +13031,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="C26" s="46" t="s">
         <v>1296</v>
@@ -13025,10 +13040,10 @@
         <v>529</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
